--- a/Code/Results/Cases/Case_0_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_19/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.000371991593495</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.012622727328621</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.006685221182312</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.014450025836148</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.047538000685153</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.022541582144536</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.023908964504774</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.018052199366717</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.025711653594915</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.011180711817808</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.006402105711105</v>
+      </c>
+      <c r="D3">
+        <v>1.017943047083465</v>
+      </c>
+      <c r="E3">
+        <v>1.011603827680915</v>
+      </c>
+      <c r="F3">
+        <v>1.020449971462512</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.049249680042091</v>
+      </c>
+      <c r="J3">
+        <v>1.026719751447338</v>
+      </c>
+      <c r="K3">
+        <v>1.02835137762136</v>
+      </c>
+      <c r="L3">
+        <v>1.022090357452643</v>
+      </c>
+      <c r="M3">
+        <v>1.030827710299181</v>
+      </c>
+      <c r="N3">
+        <v>1.012589530857433</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.010200952517593</v>
+      </c>
+      <c r="D4">
+        <v>1.021300444156551</v>
+      </c>
+      <c r="E4">
+        <v>1.014708877002864</v>
+      </c>
+      <c r="F4">
+        <v>1.02423797295294</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.050309829206234</v>
+      </c>
+      <c r="J4">
+        <v>1.029347268039934</v>
+      </c>
+      <c r="K4">
+        <v>1.031148412920816</v>
+      </c>
+      <c r="L4">
+        <v>1.024632961866216</v>
+      </c>
+      <c r="M4">
+        <v>1.034052409877981</v>
+      </c>
+      <c r="N4">
+        <v>1.013475236627418</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.011774453661208</v>
+      </c>
+      <c r="D5">
+        <v>1.022692408015546</v>
+      </c>
+      <c r="E5">
+        <v>1.015996478875264</v>
+      </c>
+      <c r="F5">
+        <v>1.025808902319023</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.050744515679943</v>
+      </c>
+      <c r="J5">
+        <v>1.030434430440689</v>
+      </c>
+      <c r="K5">
+        <v>1.032306524551513</v>
+      </c>
+      <c r="L5">
+        <v>1.025685741172585</v>
+      </c>
+      <c r="M5">
+        <v>1.035388455001416</v>
+      </c>
+      <c r="N5">
+        <v>1.013841638518902</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.012037302895804</v>
+      </c>
+      <c r="D6">
+        <v>1.022925007599615</v>
+      </c>
+      <c r="E6">
+        <v>1.016211654239015</v>
+      </c>
+      <c r="F6">
+        <v>1.026071433835109</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.050816866186234</v>
+      </c>
+      <c r="J6">
+        <v>1.030615967856302</v>
+      </c>
+      <c r="K6">
+        <v>1.032499957055067</v>
+      </c>
+      <c r="L6">
+        <v>1.025861581270441</v>
+      </c>
+      <c r="M6">
+        <v>1.035611657603406</v>
+      </c>
+      <c r="N6">
+        <v>1.013902817129072</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.010222068747223</v>
+      </c>
+      <c r="D7">
+        <v>1.021319119049897</v>
+      </c>
+      <c r="E7">
+        <v>1.014726150744284</v>
+      </c>
+      <c r="F7">
+        <v>1.024259047121044</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.050315680282627</v>
+      </c>
+      <c r="J7">
+        <v>1.029361862341172</v>
+      </c>
+      <c r="K7">
+        <v>1.031163956448841</v>
+      </c>
+      <c r="L7">
+        <v>1.02464709163525</v>
+      </c>
+      <c r="M7">
+        <v>1.034070338112933</v>
+      </c>
+      <c r="N7">
+        <v>1.013480155563435</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.00243194032744</v>
+      </c>
+      <c r="D8">
+        <v>1.014438966145393</v>
+      </c>
+      <c r="E8">
+        <v>1.00836407086598</v>
+      </c>
+      <c r="F8">
+        <v>1.016497926346424</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.048126510110838</v>
+      </c>
+      <c r="J8">
+        <v>1.023969831600892</v>
+      </c>
+      <c r="K8">
+        <v>1.025426840964063</v>
+      </c>
+      <c r="L8">
+        <v>1.019431925004279</v>
+      </c>
+      <c r="M8">
+        <v>1.027458965431539</v>
+      </c>
+      <c r="N8">
+        <v>1.011662346697022</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9878601688855934</v>
+      </c>
+      <c r="D9">
+        <v>1.001618195265632</v>
+      </c>
+      <c r="E9">
+        <v>0.9965188046246791</v>
+      </c>
+      <c r="F9">
+        <v>1.002048170806342</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.043888474010085</v>
+      </c>
+      <c r="J9">
+        <v>1.013849021419201</v>
+      </c>
+      <c r="K9">
+        <v>1.014685072825491</v>
+      </c>
+      <c r="L9">
+        <v>1.009668615430138</v>
+      </c>
+      <c r="M9">
+        <v>1.01510810504234</v>
+      </c>
+      <c r="N9">
+        <v>1.008248599193273</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9774925973255554</v>
+      </c>
+      <c r="D10">
+        <v>0.9925340940176368</v>
+      </c>
+      <c r="E10">
+        <v>0.9881340408425778</v>
+      </c>
+      <c r="F10">
+        <v>0.9918166205639674</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.040780811825287</v>
+      </c>
+      <c r="J10">
+        <v>1.006628569783574</v>
+      </c>
+      <c r="K10">
+        <v>1.007039468911936</v>
+      </c>
+      <c r="L10">
+        <v>1.002720895650212</v>
+      </c>
+      <c r="M10">
+        <v>1.006335217296385</v>
+      </c>
+      <c r="N10">
+        <v>1.00581245785036</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9728268079922812</v>
+      </c>
+      <c r="D11">
+        <v>0.9884559706136939</v>
+      </c>
+      <c r="E11">
+        <v>0.9843721234048527</v>
+      </c>
+      <c r="F11">
+        <v>0.9872245290917998</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.039361482177045</v>
+      </c>
+      <c r="J11">
+        <v>1.00337540592409</v>
+      </c>
+      <c r="K11">
+        <v>1.003598924241239</v>
+      </c>
+      <c r="L11">
+        <v>0.9995949015877063</v>
+      </c>
+      <c r="M11">
+        <v>1.002391461763701</v>
+      </c>
+      <c r="N11">
+        <v>1.004714812099033</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9710651273612952</v>
+      </c>
+      <c r="D12">
+        <v>0.9869177931091961</v>
+      </c>
+      <c r="E12">
+        <v>0.9829535798829289</v>
+      </c>
+      <c r="F12">
+        <v>0.9854926261925684</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.038822565855846</v>
+      </c>
+      <c r="J12">
+        <v>1.002146631222596</v>
+      </c>
+      <c r="K12">
+        <v>1.002299993912398</v>
+      </c>
+      <c r="L12">
+        <v>0.9984148151209913</v>
+      </c>
+      <c r="M12">
+        <v>1.00090314427769</v>
+      </c>
+      <c r="N12">
+        <v>1.004300216442429</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9714443436719135</v>
+      </c>
+      <c r="D13">
+        <v>0.9872488237932276</v>
+      </c>
+      <c r="E13">
+        <v>0.9832588470503933</v>
+      </c>
+      <c r="F13">
+        <v>0.9858653432047715</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.038938706373819</v>
+      </c>
+      <c r="J13">
+        <v>1.002411154581315</v>
+      </c>
+      <c r="K13">
+        <v>1.002579591996232</v>
+      </c>
+      <c r="L13">
+        <v>0.9986688274706065</v>
+      </c>
+      <c r="M13">
+        <v>1.001223481954863</v>
+      </c>
+      <c r="N13">
+        <v>1.004389467808932</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9726817830906967</v>
+      </c>
+      <c r="D14">
+        <v>0.9883293114875651</v>
+      </c>
+      <c r="E14">
+        <v>0.984255307722672</v>
+      </c>
+      <c r="F14">
+        <v>0.9870819154863882</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.039317178102888</v>
+      </c>
+      <c r="J14">
+        <v>1.003274259737428</v>
+      </c>
+      <c r="K14">
+        <v>1.003491990640588</v>
+      </c>
+      <c r="L14">
+        <v>0.9994977498260711</v>
+      </c>
+      <c r="M14">
+        <v>1.002268925057655</v>
+      </c>
+      <c r="N14">
+        <v>1.004680684657961</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9734403550421447</v>
+      </c>
+      <c r="D15">
+        <v>0.9889918851989457</v>
+      </c>
+      <c r="E15">
+        <v>0.9848664040035826</v>
+      </c>
+      <c r="F15">
+        <v>0.9878279546887818</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.039548794442016</v>
+      </c>
+      <c r="J15">
+        <v>1.003803299911253</v>
+      </c>
+      <c r="K15">
+        <v>1.004051326839213</v>
+      </c>
+      <c r="L15">
+        <v>1.000005924020013</v>
+      </c>
+      <c r="M15">
+        <v>1.002909900239514</v>
+      </c>
+      <c r="N15">
+        <v>1.004859186776856</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9777983584533884</v>
+      </c>
+      <c r="D16">
+        <v>0.992801561114512</v>
+      </c>
+      <c r="E16">
+        <v>0.9883808185268113</v>
+      </c>
+      <c r="F16">
+        <v>0.9921178172468582</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.04087340208401</v>
+      </c>
+      <c r="J16">
+        <v>1.006841688747108</v>
+      </c>
+      <c r="K16">
+        <v>1.007264949463659</v>
+      </c>
+      <c r="L16">
+        <v>1.002925773292348</v>
+      </c>
+      <c r="M16">
+        <v>1.006593759341663</v>
+      </c>
+      <c r="N16">
+        <v>1.005884365958705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9804833518354455</v>
+      </c>
+      <c r="D17">
+        <v>0.9951514314200279</v>
+      </c>
+      <c r="E17">
+        <v>0.9905491776670974</v>
+      </c>
+      <c r="F17">
+        <v>0.9947641499392805</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.041684130594122</v>
+      </c>
+      <c r="J17">
+        <v>1.008712751534445</v>
+      </c>
+      <c r="K17">
+        <v>1.009245011063098</v>
+      </c>
+      <c r="L17">
+        <v>1.004724968363213</v>
+      </c>
+      <c r="M17">
+        <v>1.008864609634543</v>
+      </c>
+      <c r="N17">
+        <v>1.006515674111959</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9820325783260669</v>
+      </c>
+      <c r="D18">
+        <v>0.9965082345835063</v>
+      </c>
+      <c r="E18">
+        <v>0.9918013878256994</v>
+      </c>
+      <c r="F18">
+        <v>0.9962922410084311</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.042149951433322</v>
+      </c>
+      <c r="J18">
+        <v>1.009791989978233</v>
+      </c>
+      <c r="K18">
+        <v>1.010387513883674</v>
+      </c>
+      <c r="L18">
+        <v>1.005763156745799</v>
+      </c>
+      <c r="M18">
+        <v>1.010175283600502</v>
+      </c>
+      <c r="N18">
+        <v>1.006879810804841</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9825580200243302</v>
+      </c>
+      <c r="D19">
+        <v>0.9969685698738653</v>
+      </c>
+      <c r="E19">
+        <v>0.9922262717545868</v>
+      </c>
+      <c r="F19">
+        <v>0.9968107109353885</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.042307604692212</v>
+      </c>
+      <c r="J19">
+        <v>1.010157965994038</v>
+      </c>
+      <c r="K19">
+        <v>1.010775010095669</v>
+      </c>
+      <c r="L19">
+        <v>1.006115280650673</v>
+      </c>
+      <c r="M19">
+        <v>1.010619883301842</v>
+      </c>
+      <c r="N19">
+        <v>1.007003290514587</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9801970382068912</v>
+      </c>
+      <c r="D20">
+        <v>0.9949007551239385</v>
+      </c>
+      <c r="E20">
+        <v>0.9903178423010166</v>
+      </c>
+      <c r="F20">
+        <v>0.9944818366803486</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.041597882133076</v>
+      </c>
+      <c r="J20">
+        <v>1.008513267409223</v>
+      </c>
+      <c r="K20">
+        <v>1.009033865165937</v>
+      </c>
+      <c r="L20">
+        <v>1.00453310445506</v>
+      </c>
+      <c r="M20">
+        <v>1.008622415325086</v>
+      </c>
+      <c r="N20">
+        <v>1.006448367384883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.97231819523449</v>
+      </c>
+      <c r="D21">
+        <v>0.9880117943212593</v>
+      </c>
+      <c r="E21">
+        <v>0.9839624727586298</v>
+      </c>
+      <c r="F21">
+        <v>0.9867244045903745</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.039206056474311</v>
+      </c>
+      <c r="J21">
+        <v>1.003020671818189</v>
+      </c>
+      <c r="K21">
+        <v>1.003223902826013</v>
+      </c>
+      <c r="L21">
+        <v>0.9992541870573245</v>
+      </c>
+      <c r="M21">
+        <v>1.001961728968212</v>
+      </c>
+      <c r="N21">
+        <v>1.004595122389323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9671977976634594</v>
+      </c>
+      <c r="D22">
+        <v>0.9835442105269786</v>
+      </c>
+      <c r="E22">
+        <v>0.9798430956530826</v>
+      </c>
+      <c r="F22">
+        <v>0.9816943523604522</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.037634077972346</v>
+      </c>
+      <c r="J22">
+        <v>0.9994484135700988</v>
+      </c>
+      <c r="K22">
+        <v>0.9994488635472799</v>
+      </c>
+      <c r="L22">
+        <v>0.9958247270453608</v>
+      </c>
+      <c r="M22">
+        <v>0.9976373841605135</v>
+      </c>
+      <c r="N22">
+        <v>1.003389841034144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.969928765554222</v>
+      </c>
+      <c r="D23">
+        <v>0.9859260700513621</v>
+      </c>
+      <c r="E23">
+        <v>0.9820390972058102</v>
+      </c>
+      <c r="F23">
+        <v>0.9843760324791614</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.038474105197034</v>
+      </c>
+      <c r="J23">
+        <v>1.001353898239298</v>
+      </c>
+      <c r="K23">
+        <v>1.001462175118227</v>
+      </c>
+      <c r="L23">
+        <v>0.9976536785681114</v>
+      </c>
+      <c r="M23">
+        <v>0.9999433343147934</v>
+      </c>
+      <c r="N23">
+        <v>1.004032746149185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9803264630368103</v>
+      </c>
+      <c r="D24">
+        <v>0.9950140675887194</v>
+      </c>
+      <c r="E24">
+        <v>0.9904224114909596</v>
+      </c>
+      <c r="F24">
+        <v>0.9946094495570884</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.04163687588037</v>
+      </c>
+      <c r="J24">
+        <v>1.008603443053899</v>
+      </c>
+      <c r="K24">
+        <v>1.009129311225566</v>
+      </c>
+      <c r="L24">
+        <v>1.004619834172277</v>
+      </c>
+      <c r="M24">
+        <v>1.008731895263671</v>
+      </c>
+      <c r="N24">
+        <v>1.006478793017854</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.991735692585731</v>
+      </c>
+      <c r="D25">
+        <v>1.005021922929121</v>
+      </c>
+      <c r="E25">
+        <v>0.9996622519989266</v>
+      </c>
+      <c r="F25">
+        <v>1.00588307502649</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.045031771408751</v>
+      </c>
+      <c r="J25">
+        <v>1.016544420859416</v>
+      </c>
+      <c r="K25">
+        <v>1.01754277703741</v>
+      </c>
+      <c r="L25">
+        <v>1.01226581333365</v>
+      </c>
+      <c r="M25">
+        <v>1.018390745182743</v>
+      </c>
+      <c r="N25">
+        <v>1.009157909967361</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_19/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000371991593495</v>
+        <v>1.038925902598975</v>
       </c>
       <c r="D2">
-        <v>1.012622727328621</v>
+        <v>1.045824259550994</v>
       </c>
       <c r="E2">
-        <v>1.006685221182312</v>
+        <v>1.037515753087569</v>
       </c>
       <c r="F2">
-        <v>1.014450025836148</v>
+        <v>1.053242771148646</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047538000685153</v>
+        <v>1.035310397126852</v>
       </c>
       <c r="J2">
-        <v>1.022541582144536</v>
+        <v>1.044020694393578</v>
       </c>
       <c r="K2">
-        <v>1.023908964504774</v>
+        <v>1.048591416162014</v>
       </c>
       <c r="L2">
-        <v>1.018052199366717</v>
+        <v>1.040306415913151</v>
       </c>
       <c r="M2">
-        <v>1.025711653594915</v>
+        <v>1.05598927923025</v>
       </c>
       <c r="N2">
-        <v>1.011180711817808</v>
+        <v>1.018557384346191</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006402105711105</v>
+        <v>1.040146842485191</v>
       </c>
       <c r="D3">
-        <v>1.017943047083465</v>
+        <v>1.046953669195094</v>
       </c>
       <c r="E3">
-        <v>1.011603827680915</v>
+        <v>1.038559946249151</v>
       </c>
       <c r="F3">
-        <v>1.020449971462512</v>
+        <v>1.054536563024385</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049249680042091</v>
+        <v>1.03554030401663</v>
       </c>
       <c r="J3">
-        <v>1.026719751447338</v>
+        <v>1.044885269418924</v>
       </c>
       <c r="K3">
-        <v>1.02835137762136</v>
+        <v>1.04953151742831</v>
       </c>
       <c r="L3">
-        <v>1.022090357452643</v>
+        <v>1.041159812397393</v>
       </c>
       <c r="M3">
-        <v>1.030827710299181</v>
+        <v>1.057094845379991</v>
       </c>
       <c r="N3">
-        <v>1.012589530857433</v>
+        <v>1.018846554919712</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010200952517593</v>
+        <v>1.040936008861296</v>
       </c>
       <c r="D4">
-        <v>1.021300444156551</v>
+        <v>1.047684007499962</v>
       </c>
       <c r="E4">
-        <v>1.014708877002864</v>
+        <v>1.039235228982136</v>
       </c>
       <c r="F4">
-        <v>1.02423797295294</v>
+        <v>1.055373541804755</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050309829206234</v>
+        <v>1.035686628007292</v>
       </c>
       <c r="J4">
-        <v>1.029347268039934</v>
+        <v>1.045443347638329</v>
       </c>
       <c r="K4">
-        <v>1.031148412920816</v>
+        <v>1.050138779255029</v>
       </c>
       <c r="L4">
-        <v>1.024632961866216</v>
+        <v>1.041711039555703</v>
       </c>
       <c r="M4">
-        <v>1.034052409877981</v>
+        <v>1.057809480276827</v>
       </c>
       <c r="N4">
-        <v>1.013475236627418</v>
+        <v>1.019033130444385</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011774453661208</v>
+        <v>1.041267570210219</v>
       </c>
       <c r="D5">
-        <v>1.022692408015546</v>
+        <v>1.047990932057683</v>
       </c>
       <c r="E5">
-        <v>1.015996478875264</v>
+        <v>1.039519028216769</v>
       </c>
       <c r="F5">
-        <v>1.025808902319023</v>
+        <v>1.055725364159458</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050744515679943</v>
+        <v>1.035747558436332</v>
       </c>
       <c r="J5">
-        <v>1.030434430440689</v>
+        <v>1.045677639645489</v>
       </c>
       <c r="K5">
-        <v>1.032306524551513</v>
+        <v>1.050393823122154</v>
       </c>
       <c r="L5">
-        <v>1.025685741172585</v>
+        <v>1.04194254273641</v>
       </c>
       <c r="M5">
-        <v>1.035388455001416</v>
+        <v>1.058109737438491</v>
       </c>
       <c r="N5">
-        <v>1.013841638518902</v>
+        <v>1.019111438615066</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012037302895804</v>
+        <v>1.041323228917765</v>
       </c>
       <c r="D6">
-        <v>1.022925007599615</v>
+        <v>1.048042459660218</v>
       </c>
       <c r="E6">
-        <v>1.016211654239015</v>
+        <v>1.039566674140602</v>
       </c>
       <c r="F6">
-        <v>1.026071433835109</v>
+        <v>1.055784434192803</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050816866186234</v>
+        <v>1.035757754673691</v>
       </c>
       <c r="J6">
-        <v>1.030615967856302</v>
+        <v>1.045716959341459</v>
       </c>
       <c r="K6">
-        <v>1.032499957055067</v>
+        <v>1.050436631552449</v>
       </c>
       <c r="L6">
-        <v>1.025861581270441</v>
+        <v>1.041981399529479</v>
       </c>
       <c r="M6">
-        <v>1.035611657603406</v>
+        <v>1.058160141709118</v>
       </c>
       <c r="N6">
-        <v>1.013902817129072</v>
+        <v>1.019124579397076</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010222068747223</v>
+        <v>1.040940439999535</v>
       </c>
       <c r="D7">
-        <v>1.021319119049897</v>
+        <v>1.047688109069726</v>
       </c>
       <c r="E7">
-        <v>1.014726150744284</v>
+        <v>1.039239021471903</v>
       </c>
       <c r="F7">
-        <v>1.024259047121044</v>
+        <v>1.055378243040561</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050315680282627</v>
+        <v>1.035687444457821</v>
       </c>
       <c r="J7">
-        <v>1.029361862341172</v>
+        <v>1.04544647953126</v>
       </c>
       <c r="K7">
-        <v>1.031163956448841</v>
+        <v>1.050142188140196</v>
       </c>
       <c r="L7">
-        <v>1.02464709163525</v>
+        <v>1.041714133825387</v>
       </c>
       <c r="M7">
-        <v>1.034070338112933</v>
+        <v>1.057813493014399</v>
       </c>
       <c r="N7">
-        <v>1.013480155563435</v>
+        <v>1.019034177305142</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00243194032744</v>
+        <v>1.03933870522569</v>
       </c>
       <c r="D8">
-        <v>1.014438966145393</v>
+        <v>1.046206046201736</v>
       </c>
       <c r="E8">
-        <v>1.00836407086598</v>
+        <v>1.037868722575609</v>
       </c>
       <c r="F8">
-        <v>1.016497926346424</v>
+        <v>1.053680055075482</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048126510110838</v>
+        <v>1.03538860083847</v>
       </c>
       <c r="J8">
-        <v>1.023969831600892</v>
+        <v>1.044313163954667</v>
       </c>
       <c r="K8">
-        <v>1.025426840964063</v>
+        <v>1.048909345416478</v>
       </c>
       <c r="L8">
-        <v>1.019431925004279</v>
+        <v>1.04059502841125</v>
       </c>
       <c r="M8">
-        <v>1.027458965431539</v>
+        <v>1.056363064918164</v>
       </c>
       <c r="N8">
-        <v>1.011662346697022</v>
+        <v>1.018655222375349</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9878601688855934</v>
+        <v>1.036509518583897</v>
       </c>
       <c r="D9">
-        <v>1.001618195265632</v>
+        <v>1.043590820687717</v>
       </c>
       <c r="E9">
-        <v>0.9965188046246791</v>
+        <v>1.035451107840201</v>
       </c>
       <c r="F9">
-        <v>1.002048170806342</v>
+        <v>1.050686067013047</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043888474010085</v>
+        <v>1.034843292285083</v>
       </c>
       <c r="J9">
-        <v>1.013849021419201</v>
+        <v>1.042305639025842</v>
       </c>
       <c r="K9">
-        <v>1.014685072825491</v>
+        <v>1.04672883345547</v>
       </c>
       <c r="L9">
-        <v>1.009668615430138</v>
+        <v>1.038615477214958</v>
       </c>
       <c r="M9">
-        <v>1.01510810504234</v>
+        <v>1.05380146962767</v>
       </c>
       <c r="N9">
-        <v>1.008248599193273</v>
+        <v>1.017983322042482</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9774925973255554</v>
+        <v>1.034618711114529</v>
       </c>
       <c r="D10">
-        <v>0.9925340940176368</v>
+        <v>1.041844775991766</v>
       </c>
       <c r="E10">
-        <v>0.9881340408425778</v>
+        <v>1.033837275360043</v>
       </c>
       <c r="F10">
-        <v>0.9918166205639674</v>
+        <v>1.048688879461536</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040780811825287</v>
+        <v>1.034467156090151</v>
       </c>
       <c r="J10">
-        <v>1.006628569783574</v>
+        <v>1.040960150030895</v>
       </c>
       <c r="K10">
-        <v>1.007039468911936</v>
+        <v>1.045269621027673</v>
       </c>
       <c r="L10">
-        <v>1.002720895650212</v>
+        <v>1.037290618932799</v>
       </c>
       <c r="M10">
-        <v>1.006335217296385</v>
+        <v>1.05208974644373</v>
       </c>
       <c r="N10">
-        <v>1.00581245785036</v>
+        <v>1.017532581377436</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9728268079922812</v>
+        <v>1.033798822914076</v>
       </c>
       <c r="D11">
-        <v>0.9884559706136939</v>
+        <v>1.041088085738652</v>
       </c>
       <c r="E11">
-        <v>0.9843721234048527</v>
+        <v>1.033137951316992</v>
       </c>
       <c r="F11">
-        <v>0.9872245290917998</v>
+        <v>1.047823758517745</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039361482177045</v>
+        <v>1.034301292032281</v>
       </c>
       <c r="J11">
-        <v>1.00337540592409</v>
+        <v>1.040375823158491</v>
       </c>
       <c r="K11">
-        <v>1.003598924241239</v>
+        <v>1.044636428837516</v>
       </c>
       <c r="L11">
-        <v>0.9995949015877063</v>
+        <v>1.036715697492512</v>
       </c>
       <c r="M11">
-        <v>1.002391461763701</v>
+        <v>1.051347575851647</v>
       </c>
       <c r="N11">
-        <v>1.004714812099033</v>
+        <v>1.017336733261685</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9710651273612952</v>
+        <v>1.03349410293628</v>
       </c>
       <c r="D12">
-        <v>0.9869177931091961</v>
+        <v>1.040806918550213</v>
       </c>
       <c r="E12">
-        <v>0.9829535798829289</v>
+        <v>1.032878110571421</v>
       </c>
       <c r="F12">
-        <v>0.9854926261925684</v>
+        <v>1.047502362195293</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038822565855846</v>
+        <v>1.034239232290016</v>
       </c>
       <c r="J12">
-        <v>1.002146631222596</v>
+        <v>1.040158517523385</v>
       </c>
       <c r="K12">
-        <v>1.002299993912398</v>
+        <v>1.044401029054725</v>
       </c>
       <c r="L12">
-        <v>0.9984148151209913</v>
+        <v>1.036501956587866</v>
       </c>
       <c r="M12">
-        <v>1.00090314427769</v>
+        <v>1.05107175036612</v>
       </c>
       <c r="N12">
-        <v>1.004300216442429</v>
+        <v>1.017263884610344</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9714443436719135</v>
+        <v>1.033559474468634</v>
       </c>
       <c r="D13">
-        <v>0.9872488237932276</v>
+        <v>1.040867234373036</v>
       </c>
       <c r="E13">
-        <v>0.9832588470503933</v>
+        <v>1.032933850974807</v>
       </c>
       <c r="F13">
-        <v>0.9858653432047715</v>
+        <v>1.047571305193344</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038938706373819</v>
+        <v>1.034252564707878</v>
       </c>
       <c r="J13">
-        <v>1.002411154581315</v>
+        <v>1.040205142145902</v>
       </c>
       <c r="K13">
-        <v>1.002579591996232</v>
+        <v>1.044451532373915</v>
       </c>
       <c r="L13">
-        <v>0.9986688274706065</v>
+        <v>1.036547813341522</v>
       </c>
       <c r="M13">
-        <v>1.001223481954863</v>
+        <v>1.05113092271125</v>
       </c>
       <c r="N13">
-        <v>1.004389467808932</v>
+        <v>1.017279515516343</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9726817830906967</v>
+        <v>1.0337736382955</v>
       </c>
       <c r="D14">
-        <v>0.9883293114875651</v>
+        <v>1.041064846399177</v>
       </c>
       <c r="E14">
-        <v>0.984255307722672</v>
+        <v>1.033116474456637</v>
       </c>
       <c r="F14">
-        <v>0.9870819154863882</v>
+        <v>1.047797192873183</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039317178102888</v>
+        <v>1.034296171346773</v>
       </c>
       <c r="J14">
-        <v>1.003274259737428</v>
+        <v>1.040357865935174</v>
       </c>
       <c r="K14">
-        <v>1.003491990640588</v>
+        <v>1.044616974792319</v>
       </c>
       <c r="L14">
-        <v>0.9994977498260711</v>
+        <v>1.036698033478693</v>
       </c>
       <c r="M14">
-        <v>1.002268925057655</v>
+        <v>1.051324779111658</v>
       </c>
       <c r="N14">
-        <v>1.004680684657961</v>
+        <v>1.017330713652589</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9734403550421447</v>
+        <v>1.033905568144719</v>
       </c>
       <c r="D15">
-        <v>0.9889918851989457</v>
+        <v>1.041186588535425</v>
       </c>
       <c r="E15">
-        <v>0.9848664040035826</v>
+        <v>1.033228984064568</v>
       </c>
       <c r="F15">
-        <v>0.9878279546887818</v>
+        <v>1.047936362763422</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039548794442016</v>
+        <v>1.034322979131279</v>
       </c>
       <c r="J15">
-        <v>1.003803299911253</v>
+        <v>1.040451929507175</v>
       </c>
       <c r="K15">
-        <v>1.004051326839213</v>
+        <v>1.044718882228452</v>
       </c>
       <c r="L15">
-        <v>1.000005924020013</v>
+        <v>1.036790563899753</v>
       </c>
       <c r="M15">
-        <v>1.002909900239514</v>
+        <v>1.05144420044674</v>
       </c>
       <c r="N15">
-        <v>1.004859186776856</v>
+        <v>1.01736224498739</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9777983584533884</v>
+        <v>1.034673099755137</v>
       </c>
       <c r="D16">
-        <v>0.992801561114512</v>
+        <v>1.041894981316299</v>
       </c>
       <c r="E16">
-        <v>0.9883808185268113</v>
+        <v>1.033883675989561</v>
       </c>
       <c r="F16">
-        <v>0.9921178172468582</v>
+        <v>1.048746287577044</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04087340208401</v>
+        <v>1.034478100802755</v>
       </c>
       <c r="J16">
-        <v>1.006841688747108</v>
+        <v>1.040998893444302</v>
       </c>
       <c r="K16">
-        <v>1.007264949463659</v>
+        <v>1.045311615417019</v>
       </c>
       <c r="L16">
-        <v>1.002925773292348</v>
+        <v>1.037328748103636</v>
       </c>
       <c r="M16">
-        <v>1.006593759341663</v>
+        <v>1.052138980928444</v>
       </c>
       <c r="N16">
-        <v>1.005884365958705</v>
+        <v>1.017545564909996</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9804833518354455</v>
+        <v>1.03515424021243</v>
       </c>
       <c r="D17">
-        <v>0.9951514314200279</v>
+        <v>1.042339164005641</v>
       </c>
       <c r="E17">
-        <v>0.9905491776670974</v>
+        <v>1.034294205300164</v>
       </c>
       <c r="F17">
-        <v>0.9947641499392805</v>
+        <v>1.04925424276211</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041684130594122</v>
+        <v>1.034574602411513</v>
       </c>
       <c r="J17">
-        <v>1.008712751534445</v>
+        <v>1.041341527223458</v>
       </c>
       <c r="K17">
-        <v>1.009245011063098</v>
+        <v>1.045683060058359</v>
       </c>
       <c r="L17">
-        <v>1.004724968363213</v>
+        <v>1.037666001143507</v>
       </c>
       <c r="M17">
-        <v>1.008864609634543</v>
+        <v>1.052574533338801</v>
       </c>
       <c r="N17">
-        <v>1.006515674111959</v>
+        <v>1.017660375657077</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9820325783260669</v>
+        <v>1.035434769980931</v>
       </c>
       <c r="D18">
-        <v>0.9965082345835063</v>
+        <v>1.042598186532733</v>
       </c>
       <c r="E18">
-        <v>0.9918013878256994</v>
+        <v>1.034533609683487</v>
       </c>
       <c r="F18">
-        <v>0.9962922410084311</v>
+        <v>1.049550493219753</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042149951433322</v>
+        <v>1.034630601269468</v>
       </c>
       <c r="J18">
-        <v>1.009791989978233</v>
+        <v>1.041541213771993</v>
       </c>
       <c r="K18">
-        <v>1.010387513883674</v>
+        <v>1.045899587945031</v>
       </c>
       <c r="L18">
-        <v>1.005763156745799</v>
+        <v>1.037862594744925</v>
       </c>
       <c r="M18">
-        <v>1.010175283600502</v>
+        <v>1.052828489006619</v>
       </c>
       <c r="N18">
-        <v>1.006879810804841</v>
+        <v>1.017727277792674</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9825580200243302</v>
+        <v>1.035530404599777</v>
       </c>
       <c r="D19">
-        <v>0.9969685698738653</v>
+        <v>1.042686496122921</v>
       </c>
       <c r="E19">
-        <v>0.9922262717545868</v>
+        <v>1.034615231897701</v>
       </c>
       <c r="F19">
-        <v>0.9968107109353885</v>
+        <v>1.049651501765695</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042307604692212</v>
+        <v>1.034649646446689</v>
       </c>
       <c r="J19">
-        <v>1.010157965994038</v>
+        <v>1.041609273639013</v>
       </c>
       <c r="K19">
-        <v>1.010775010095669</v>
+        <v>1.045973396459714</v>
       </c>
       <c r="L19">
-        <v>1.006115280650673</v>
+        <v>1.037929607716727</v>
       </c>
       <c r="M19">
-        <v>1.010619883301842</v>
+        <v>1.052915065343516</v>
       </c>
       <c r="N19">
-        <v>1.007003290514587</v>
+        <v>1.017750078680014</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9801970382068912</v>
+        <v>1.035102629934382</v>
       </c>
       <c r="D20">
-        <v>0.9949007551239385</v>
+        <v>1.042291513809143</v>
       </c>
       <c r="E20">
-        <v>0.9903178423010166</v>
+        <v>1.034250164620383</v>
       </c>
       <c r="F20">
-        <v>0.9944818366803486</v>
+        <v>1.04919974722875</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041597882133076</v>
+        <v>1.034564278588562</v>
       </c>
       <c r="J20">
-        <v>1.008513267409223</v>
+        <v>1.041304783040903</v>
       </c>
       <c r="K20">
-        <v>1.009033865165937</v>
+        <v>1.045643220973814</v>
       </c>
       <c r="L20">
-        <v>1.00453310445506</v>
+        <v>1.037629829550763</v>
       </c>
       <c r="M20">
-        <v>1.008622415325086</v>
+        <v>1.052527812500586</v>
       </c>
       <c r="N20">
-        <v>1.006448367384883</v>
+        <v>1.017648064281678</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.97231819523449</v>
+        <v>1.033710577298969</v>
       </c>
       <c r="D21">
-        <v>0.9880117943212593</v>
+        <v>1.041006657327651</v>
       </c>
       <c r="E21">
-        <v>0.9839624727586298</v>
+        <v>1.033062698635298</v>
       </c>
       <c r="F21">
-        <v>0.9867244045903745</v>
+        <v>1.047730676037836</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039206056474311</v>
+        <v>1.034283342717421</v>
       </c>
       <c r="J21">
-        <v>1.003020671818189</v>
+        <v>1.040312899796408</v>
       </c>
       <c r="K21">
-        <v>1.003223902826013</v>
+        <v>1.044568261772727</v>
       </c>
       <c r="L21">
-        <v>0.9992541870573245</v>
+        <v>1.036653802637865</v>
       </c>
       <c r="M21">
-        <v>1.001961728968212</v>
+        <v>1.0512676974028</v>
       </c>
       <c r="N21">
-        <v>1.004595122389323</v>
+        <v>1.01731563989659</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9671977976634594</v>
+        <v>1.032834312865644</v>
       </c>
       <c r="D22">
-        <v>0.9835442105269786</v>
+        <v>1.040198244607969</v>
       </c>
       <c r="E22">
-        <v>0.9798430956530826</v>
+        <v>1.032315623996666</v>
       </c>
       <c r="F22">
-        <v>0.9816943523604522</v>
+        <v>1.046806710996121</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037634077972346</v>
+        <v>1.034104100764015</v>
       </c>
       <c r="J22">
-        <v>0.9994484135700988</v>
+        <v>1.039687754565267</v>
       </c>
       <c r="K22">
-        <v>0.9994488635472799</v>
+        <v>1.043891210834904</v>
       </c>
       <c r="L22">
-        <v>0.9958247270453608</v>
+        <v>1.036039038568833</v>
       </c>
       <c r="M22">
-        <v>0.9976373841605135</v>
+        <v>1.050474542247968</v>
       </c>
       <c r="N22">
-        <v>1.003389841034144</v>
+        <v>1.017106041382966</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.969928765554222</v>
+        <v>1.033298935555574</v>
       </c>
       <c r="D23">
-        <v>0.9859260700513621</v>
+        <v>1.040626854548351</v>
       </c>
       <c r="E23">
-        <v>0.9820390972058102</v>
+        <v>1.032711707379861</v>
       </c>
       <c r="F23">
-        <v>0.9843760324791614</v>
+        <v>1.047296551941715</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038474105197034</v>
+        <v>1.03419936755819</v>
       </c>
       <c r="J23">
-        <v>1.001353898239298</v>
+        <v>1.040019299583457</v>
       </c>
       <c r="K23">
-        <v>1.001462175118227</v>
+        <v>1.044250241057285</v>
       </c>
       <c r="L23">
-        <v>0.9976536785681114</v>
+        <v>1.03636504125156</v>
       </c>
       <c r="M23">
-        <v>0.9999433343147934</v>
+        <v>1.050895092208162</v>
       </c>
       <c r="N23">
-        <v>1.004032746149185</v>
+        <v>1.017217209663561</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9803264630368103</v>
+        <v>1.035125950741368</v>
       </c>
       <c r="D24">
-        <v>0.9950140675887194</v>
+        <v>1.042313045072566</v>
       </c>
       <c r="E24">
-        <v>0.9904224114909596</v>
+        <v>1.034270064863678</v>
       </c>
       <c r="F24">
-        <v>0.9946094495570884</v>
+        <v>1.049224371510931</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04163687588037</v>
+        <v>1.034568944372448</v>
       </c>
       <c r="J24">
-        <v>1.008603443053899</v>
+        <v>1.041321386668073</v>
       </c>
       <c r="K24">
-        <v>1.009129311225566</v>
+        <v>1.04566122294135</v>
       </c>
       <c r="L24">
-        <v>1.004619834172277</v>
+        <v>1.037646174308527</v>
       </c>
       <c r="M24">
-        <v>1.008731895263671</v>
+        <v>1.052548923928829</v>
       </c>
       <c r="N24">
-        <v>1.006478793017854</v>
+        <v>1.017653627463224</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.991735692585731</v>
+        <v>1.037241744654515</v>
       </c>
       <c r="D25">
-        <v>1.005021922929121</v>
+        <v>1.044267362222717</v>
       </c>
       <c r="E25">
-        <v>0.9996622519989266</v>
+        <v>1.036076480752786</v>
       </c>
       <c r="F25">
-        <v>1.00588307502649</v>
+        <v>1.051460284771143</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045031771408751</v>
+        <v>1.034986486498896</v>
       </c>
       <c r="J25">
-        <v>1.016544420859416</v>
+        <v>1.04282588366386</v>
       </c>
       <c r="K25">
-        <v>1.01754277703741</v>
+        <v>1.047293516620539</v>
       </c>
       <c r="L25">
-        <v>1.01226581333365</v>
+        <v>1.039128141389411</v>
       </c>
       <c r="M25">
-        <v>1.018390745182743</v>
+        <v>1.054464398093522</v>
       </c>
       <c r="N25">
-        <v>1.009157909967361</v>
+        <v>1.018157517071797</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_19/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038925902598975</v>
+        <v>1.000371991593493</v>
       </c>
       <c r="D2">
-        <v>1.045824259550994</v>
+        <v>1.012622727328618</v>
       </c>
       <c r="E2">
-        <v>1.037515753087569</v>
+        <v>1.006685221182309</v>
       </c>
       <c r="F2">
-        <v>1.053242771148646</v>
+        <v>1.014450025836145</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035310397126852</v>
+        <v>1.047538000685152</v>
       </c>
       <c r="J2">
-        <v>1.044020694393578</v>
+        <v>1.022541582144533</v>
       </c>
       <c r="K2">
-        <v>1.048591416162014</v>
+        <v>1.023908964504771</v>
       </c>
       <c r="L2">
-        <v>1.040306415913151</v>
+        <v>1.018052199366714</v>
       </c>
       <c r="M2">
-        <v>1.05598927923025</v>
+        <v>1.025711653594912</v>
       </c>
       <c r="N2">
-        <v>1.018557384346191</v>
+        <v>1.011180711817807</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040146842485191</v>
+        <v>1.006402105711106</v>
       </c>
       <c r="D3">
-        <v>1.046953669195094</v>
+        <v>1.017943047083465</v>
       </c>
       <c r="E3">
-        <v>1.038559946249151</v>
+        <v>1.011603827680915</v>
       </c>
       <c r="F3">
-        <v>1.054536563024385</v>
+        <v>1.020449971462513</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03554030401663</v>
+        <v>1.049249680042092</v>
       </c>
       <c r="J3">
-        <v>1.044885269418924</v>
+        <v>1.026719751447338</v>
       </c>
       <c r="K3">
-        <v>1.04953151742831</v>
+        <v>1.02835137762136</v>
       </c>
       <c r="L3">
-        <v>1.041159812397393</v>
+        <v>1.022090357452644</v>
       </c>
       <c r="M3">
-        <v>1.057094845379991</v>
+        <v>1.030827710299181</v>
       </c>
       <c r="N3">
-        <v>1.018846554919712</v>
+        <v>1.012589530857433</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040936008861296</v>
+        <v>1.010200952517595</v>
       </c>
       <c r="D4">
-        <v>1.047684007499962</v>
+        <v>1.021300444156553</v>
       </c>
       <c r="E4">
-        <v>1.039235228982136</v>
+        <v>1.014708877002866</v>
       </c>
       <c r="F4">
-        <v>1.055373541804755</v>
+        <v>1.024237972952941</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035686628007292</v>
+        <v>1.050309829206235</v>
       </c>
       <c r="J4">
-        <v>1.045443347638329</v>
+        <v>1.029347268039935</v>
       </c>
       <c r="K4">
-        <v>1.050138779255029</v>
+        <v>1.031148412920817</v>
       </c>
       <c r="L4">
-        <v>1.041711039555703</v>
+        <v>1.024632961866217</v>
       </c>
       <c r="M4">
-        <v>1.057809480276827</v>
+        <v>1.034052409877983</v>
       </c>
       <c r="N4">
-        <v>1.019033130444385</v>
+        <v>1.013475236627418</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041267570210219</v>
+        <v>1.011774453661208</v>
       </c>
       <c r="D5">
-        <v>1.047990932057683</v>
+        <v>1.022692408015546</v>
       </c>
       <c r="E5">
-        <v>1.039519028216769</v>
+        <v>1.015996478875264</v>
       </c>
       <c r="F5">
-        <v>1.055725364159458</v>
+        <v>1.025808902319022</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035747558436332</v>
+        <v>1.050744515679944</v>
       </c>
       <c r="J5">
-        <v>1.045677639645489</v>
+        <v>1.030434430440689</v>
       </c>
       <c r="K5">
-        <v>1.050393823122154</v>
+        <v>1.032306524551513</v>
       </c>
       <c r="L5">
-        <v>1.04194254273641</v>
+        <v>1.025685741172585</v>
       </c>
       <c r="M5">
-        <v>1.058109737438491</v>
+        <v>1.035388455001416</v>
       </c>
       <c r="N5">
-        <v>1.019111438615066</v>
+        <v>1.013841638518902</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041323228917765</v>
+        <v>1.012037302895804</v>
       </c>
       <c r="D6">
-        <v>1.048042459660218</v>
+        <v>1.022925007599615</v>
       </c>
       <c r="E6">
-        <v>1.039566674140602</v>
+        <v>1.016211654239016</v>
       </c>
       <c r="F6">
-        <v>1.055784434192803</v>
+        <v>1.02607143383511</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035757754673691</v>
+        <v>1.050816866186235</v>
       </c>
       <c r="J6">
-        <v>1.045716959341459</v>
+        <v>1.030615967856303</v>
       </c>
       <c r="K6">
-        <v>1.050436631552449</v>
+        <v>1.032499957055067</v>
       </c>
       <c r="L6">
-        <v>1.041981399529479</v>
+        <v>1.025861581270442</v>
       </c>
       <c r="M6">
-        <v>1.058160141709118</v>
+        <v>1.035611657603406</v>
       </c>
       <c r="N6">
-        <v>1.019124579397076</v>
+        <v>1.013902817129072</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040940439999535</v>
+        <v>1.010222068747225</v>
       </c>
       <c r="D7">
-        <v>1.047688109069726</v>
+        <v>1.021319119049898</v>
       </c>
       <c r="E7">
-        <v>1.039239021471903</v>
+        <v>1.014726150744285</v>
       </c>
       <c r="F7">
-        <v>1.055378243040561</v>
+        <v>1.024259047121045</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035687444457821</v>
+        <v>1.050315680282628</v>
       </c>
       <c r="J7">
-        <v>1.04544647953126</v>
+        <v>1.029361862341174</v>
       </c>
       <c r="K7">
-        <v>1.050142188140196</v>
+        <v>1.031163956448843</v>
       </c>
       <c r="L7">
-        <v>1.041714133825387</v>
+        <v>1.024647091635251</v>
       </c>
       <c r="M7">
-        <v>1.057813493014399</v>
+        <v>1.034070338112934</v>
       </c>
       <c r="N7">
-        <v>1.019034177305142</v>
+        <v>1.013480155563435</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03933870522569</v>
+        <v>1.00243194032744</v>
       </c>
       <c r="D8">
-        <v>1.046206046201736</v>
+        <v>1.014438966145393</v>
       </c>
       <c r="E8">
-        <v>1.037868722575609</v>
+        <v>1.00836407086598</v>
       </c>
       <c r="F8">
-        <v>1.053680055075482</v>
+        <v>1.016497926346424</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03538860083847</v>
+        <v>1.048126510110838</v>
       </c>
       <c r="J8">
-        <v>1.044313163954667</v>
+        <v>1.023969831600892</v>
       </c>
       <c r="K8">
-        <v>1.048909345416478</v>
+        <v>1.025426840964063</v>
       </c>
       <c r="L8">
-        <v>1.04059502841125</v>
+        <v>1.019431925004279</v>
       </c>
       <c r="M8">
-        <v>1.056363064918164</v>
+        <v>1.027458965431539</v>
       </c>
       <c r="N8">
-        <v>1.018655222375349</v>
+        <v>1.011662346697022</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036509518583897</v>
+        <v>0.9878601688855954</v>
       </c>
       <c r="D9">
-        <v>1.043590820687717</v>
+        <v>1.001618195265634</v>
       </c>
       <c r="E9">
-        <v>1.035451107840201</v>
+        <v>0.9965188046246808</v>
       </c>
       <c r="F9">
-        <v>1.050686067013047</v>
+        <v>1.002048170806344</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034843292285083</v>
+        <v>1.043888474010086</v>
       </c>
       <c r="J9">
-        <v>1.042305639025842</v>
+        <v>1.013849021419203</v>
       </c>
       <c r="K9">
-        <v>1.04672883345547</v>
+        <v>1.014685072825492</v>
       </c>
       <c r="L9">
-        <v>1.038615477214958</v>
+        <v>1.00966861543014</v>
       </c>
       <c r="M9">
-        <v>1.05380146962767</v>
+        <v>1.015108105042342</v>
       </c>
       <c r="N9">
-        <v>1.017983322042482</v>
+        <v>1.008248599193274</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034618711114529</v>
+        <v>0.9774925973255557</v>
       </c>
       <c r="D10">
-        <v>1.041844775991766</v>
+        <v>0.9925340940176369</v>
       </c>
       <c r="E10">
-        <v>1.033837275360043</v>
+        <v>0.9881340408425783</v>
       </c>
       <c r="F10">
-        <v>1.048688879461536</v>
+        <v>0.9918166205639678</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034467156090151</v>
+        <v>1.040780811825287</v>
       </c>
       <c r="J10">
-        <v>1.040960150030895</v>
+        <v>1.006628569783574</v>
       </c>
       <c r="K10">
-        <v>1.045269621027673</v>
+        <v>1.007039468911936</v>
       </c>
       <c r="L10">
-        <v>1.037290618932799</v>
+        <v>1.002720895650213</v>
       </c>
       <c r="M10">
-        <v>1.05208974644373</v>
+        <v>1.006335217296385</v>
       </c>
       <c r="N10">
-        <v>1.017532581377436</v>
+        <v>1.00581245785036</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033798822914076</v>
+        <v>0.9728268079922796</v>
       </c>
       <c r="D11">
-        <v>1.041088085738652</v>
+        <v>0.9884559706136924</v>
       </c>
       <c r="E11">
-        <v>1.033137951316992</v>
+        <v>0.9843721234048509</v>
       </c>
       <c r="F11">
-        <v>1.047823758517745</v>
+        <v>0.9872245290917985</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034301292032281</v>
+        <v>1.039361482177044</v>
       </c>
       <c r="J11">
-        <v>1.040375823158491</v>
+        <v>1.003375405924088</v>
       </c>
       <c r="K11">
-        <v>1.044636428837516</v>
+        <v>1.003598924241238</v>
       </c>
       <c r="L11">
-        <v>1.036715697492512</v>
+        <v>0.9995949015877046</v>
       </c>
       <c r="M11">
-        <v>1.051347575851647</v>
+        <v>1.002391461763699</v>
       </c>
       <c r="N11">
-        <v>1.017336733261685</v>
+        <v>1.004714812099033</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03349410293628</v>
+        <v>0.9710651273612938</v>
       </c>
       <c r="D12">
-        <v>1.040806918550213</v>
+        <v>0.9869177931091946</v>
       </c>
       <c r="E12">
-        <v>1.032878110571421</v>
+        <v>0.9829535798829274</v>
       </c>
       <c r="F12">
-        <v>1.047502362195293</v>
+        <v>0.9854926261925664</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034239232290016</v>
+        <v>1.038822565855846</v>
       </c>
       <c r="J12">
-        <v>1.040158517523385</v>
+        <v>1.002146631222594</v>
       </c>
       <c r="K12">
-        <v>1.044401029054725</v>
+        <v>1.002299993912396</v>
       </c>
       <c r="L12">
-        <v>1.036501956587866</v>
+        <v>0.9984148151209897</v>
       </c>
       <c r="M12">
-        <v>1.05107175036612</v>
+        <v>1.000903144277688</v>
       </c>
       <c r="N12">
-        <v>1.017263884610344</v>
+        <v>1.004300216442429</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033559474468634</v>
+        <v>0.971444343671914</v>
       </c>
       <c r="D13">
-        <v>1.040867234373036</v>
+        <v>0.987248823793228</v>
       </c>
       <c r="E13">
-        <v>1.032933850974807</v>
+        <v>0.9832588470503931</v>
       </c>
       <c r="F13">
-        <v>1.047571305193344</v>
+        <v>0.9858653432047718</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034252564707878</v>
+        <v>1.03893870637382</v>
       </c>
       <c r="J13">
-        <v>1.040205142145902</v>
+        <v>1.002411154581316</v>
       </c>
       <c r="K13">
-        <v>1.044451532373915</v>
+        <v>1.002579591996232</v>
       </c>
       <c r="L13">
-        <v>1.036547813341522</v>
+        <v>0.9986688274706063</v>
       </c>
       <c r="M13">
-        <v>1.05113092271125</v>
+        <v>1.001223481954863</v>
       </c>
       <c r="N13">
-        <v>1.017279515516343</v>
+        <v>1.004389467808932</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.0337736382955</v>
+        <v>0.9726817830906974</v>
       </c>
       <c r="D14">
-        <v>1.041064846399177</v>
+        <v>0.9883293114875656</v>
       </c>
       <c r="E14">
-        <v>1.033116474456637</v>
+        <v>0.9842553077226728</v>
       </c>
       <c r="F14">
-        <v>1.047797192873183</v>
+        <v>0.9870819154863887</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034296171346773</v>
+        <v>1.039317178102888</v>
       </c>
       <c r="J14">
-        <v>1.040357865935174</v>
+        <v>1.003274259737429</v>
       </c>
       <c r="K14">
-        <v>1.044616974792319</v>
+        <v>1.003491990640589</v>
       </c>
       <c r="L14">
-        <v>1.036698033478693</v>
+        <v>0.9994977498260721</v>
       </c>
       <c r="M14">
-        <v>1.051324779111658</v>
+        <v>1.002268925057656</v>
       </c>
       <c r="N14">
-        <v>1.017330713652589</v>
+        <v>1.004680684657962</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033905568144719</v>
+        <v>0.9734403550421439</v>
       </c>
       <c r="D15">
-        <v>1.041186588535425</v>
+        <v>0.9889918851989451</v>
       </c>
       <c r="E15">
-        <v>1.033228984064568</v>
+        <v>0.9848664040035817</v>
       </c>
       <c r="F15">
-        <v>1.047936362763422</v>
+        <v>0.9878279546887813</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034322979131279</v>
+        <v>1.039548794442016</v>
       </c>
       <c r="J15">
-        <v>1.040451929507175</v>
+        <v>1.003803299911253</v>
       </c>
       <c r="K15">
-        <v>1.044718882228452</v>
+        <v>1.004051326839213</v>
       </c>
       <c r="L15">
-        <v>1.036790563899753</v>
+        <v>1.000005924020012</v>
       </c>
       <c r="M15">
-        <v>1.05144420044674</v>
+        <v>1.002909900239513</v>
       </c>
       <c r="N15">
-        <v>1.01736224498739</v>
+        <v>1.004859186776856</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034673099755137</v>
+        <v>0.9777983584533895</v>
       </c>
       <c r="D16">
-        <v>1.041894981316299</v>
+        <v>0.9928015611145129</v>
       </c>
       <c r="E16">
-        <v>1.033883675989561</v>
+        <v>0.9883808185268121</v>
       </c>
       <c r="F16">
-        <v>1.048746287577044</v>
+        <v>0.9921178172468594</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034478100802755</v>
+        <v>1.040873402084011</v>
       </c>
       <c r="J16">
-        <v>1.040998893444302</v>
+        <v>1.006841688747109</v>
       </c>
       <c r="K16">
-        <v>1.045311615417019</v>
+        <v>1.00726494946366</v>
       </c>
       <c r="L16">
-        <v>1.037328748103636</v>
+        <v>1.002925773292349</v>
       </c>
       <c r="M16">
-        <v>1.052138980928444</v>
+        <v>1.006593759341664</v>
       </c>
       <c r="N16">
-        <v>1.017545564909996</v>
+        <v>1.005884365958705</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03515424021243</v>
+        <v>0.9804833518354458</v>
       </c>
       <c r="D17">
-        <v>1.042339164005641</v>
+        <v>0.9951514314200282</v>
       </c>
       <c r="E17">
-        <v>1.034294205300164</v>
+        <v>0.9905491776670974</v>
       </c>
       <c r="F17">
-        <v>1.04925424276211</v>
+        <v>0.9947641499392809</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034574602411513</v>
+        <v>1.041684130594123</v>
       </c>
       <c r="J17">
-        <v>1.041341527223458</v>
+        <v>1.008712751534445</v>
       </c>
       <c r="K17">
-        <v>1.045683060058359</v>
+        <v>1.009245011063098</v>
       </c>
       <c r="L17">
-        <v>1.037666001143507</v>
+        <v>1.004724968363213</v>
       </c>
       <c r="M17">
-        <v>1.052574533338801</v>
+        <v>1.008864609634544</v>
       </c>
       <c r="N17">
-        <v>1.017660375657077</v>
+        <v>1.006515674111959</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035434769980931</v>
+        <v>0.9820325783260666</v>
       </c>
       <c r="D18">
-        <v>1.042598186532733</v>
+        <v>0.9965082345835056</v>
       </c>
       <c r="E18">
-        <v>1.034533609683487</v>
+        <v>0.9918013878256993</v>
       </c>
       <c r="F18">
-        <v>1.049550493219753</v>
+        <v>0.9962922410084304</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034630601269468</v>
+        <v>1.042149951433322</v>
       </c>
       <c r="J18">
-        <v>1.041541213771993</v>
+        <v>1.009791989978233</v>
       </c>
       <c r="K18">
-        <v>1.045899587945031</v>
+        <v>1.010387513883674</v>
       </c>
       <c r="L18">
-        <v>1.037862594744925</v>
+        <v>1.005763156745799</v>
       </c>
       <c r="M18">
-        <v>1.052828489006619</v>
+        <v>1.010175283600502</v>
       </c>
       <c r="N18">
-        <v>1.017727277792674</v>
+        <v>1.006879810804841</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035530404599777</v>
+        <v>0.9825580200243286</v>
       </c>
       <c r="D19">
-        <v>1.042686496122921</v>
+        <v>0.9969685698738634</v>
       </c>
       <c r="E19">
-        <v>1.034615231897701</v>
+        <v>0.9922262717545852</v>
       </c>
       <c r="F19">
-        <v>1.049651501765695</v>
+        <v>0.9968107109353863</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034649646446689</v>
+        <v>1.042307604692211</v>
       </c>
       <c r="J19">
-        <v>1.041609273639013</v>
+        <v>1.010157965994037</v>
       </c>
       <c r="K19">
-        <v>1.045973396459714</v>
+        <v>1.010775010095667</v>
       </c>
       <c r="L19">
-        <v>1.037929607716727</v>
+        <v>1.006115280650671</v>
       </c>
       <c r="M19">
-        <v>1.052915065343516</v>
+        <v>1.01061988330184</v>
       </c>
       <c r="N19">
-        <v>1.017750078680014</v>
+        <v>1.007003290514587</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035102629934382</v>
+        <v>0.9801970382068905</v>
       </c>
       <c r="D20">
-        <v>1.042291513809143</v>
+        <v>0.9949007551239379</v>
       </c>
       <c r="E20">
-        <v>1.034250164620383</v>
+        <v>0.9903178423010157</v>
       </c>
       <c r="F20">
-        <v>1.04919974722875</v>
+        <v>0.994481836680348</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034564278588562</v>
+        <v>1.041597882133076</v>
       </c>
       <c r="J20">
-        <v>1.041304783040903</v>
+        <v>1.008513267409222</v>
       </c>
       <c r="K20">
-        <v>1.045643220973814</v>
+        <v>1.009033865165937</v>
       </c>
       <c r="L20">
-        <v>1.037629829550763</v>
+        <v>1.00453310445506</v>
       </c>
       <c r="M20">
-        <v>1.052527812500586</v>
+        <v>1.008622415325086</v>
       </c>
       <c r="N20">
-        <v>1.017648064281678</v>
+        <v>1.006448367384882</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033710577298969</v>
+        <v>0.9723181952344894</v>
       </c>
       <c r="D21">
-        <v>1.041006657327651</v>
+        <v>0.9880117943212589</v>
       </c>
       <c r="E21">
-        <v>1.033062698635298</v>
+        <v>0.9839624727586291</v>
       </c>
       <c r="F21">
-        <v>1.047730676037836</v>
+        <v>0.9867244045903741</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034283342717421</v>
+        <v>1.039206056474311</v>
       </c>
       <c r="J21">
-        <v>1.040312899796408</v>
+        <v>1.003020671818188</v>
       </c>
       <c r="K21">
-        <v>1.044568261772727</v>
+        <v>1.003223902826013</v>
       </c>
       <c r="L21">
-        <v>1.036653802637865</v>
+        <v>0.9992541870573239</v>
       </c>
       <c r="M21">
-        <v>1.0512676974028</v>
+        <v>1.001961728968211</v>
       </c>
       <c r="N21">
-        <v>1.01731563989659</v>
+        <v>1.004595122389323</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.032834312865644</v>
+        <v>0.9671977976634608</v>
       </c>
       <c r="D22">
-        <v>1.040198244607969</v>
+        <v>0.9835442105269802</v>
       </c>
       <c r="E22">
-        <v>1.032315623996666</v>
+        <v>0.9798430956530836</v>
       </c>
       <c r="F22">
-        <v>1.046806710996121</v>
+        <v>0.9816943523604538</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034104100764015</v>
+        <v>1.037634077972346</v>
       </c>
       <c r="J22">
-        <v>1.039687754565267</v>
+        <v>0.9994484135700999</v>
       </c>
       <c r="K22">
-        <v>1.043891210834904</v>
+        <v>0.9994488635472812</v>
       </c>
       <c r="L22">
-        <v>1.036039038568833</v>
+        <v>0.9958247270453621</v>
       </c>
       <c r="M22">
-        <v>1.050474542247968</v>
+        <v>0.997637384160515</v>
       </c>
       <c r="N22">
-        <v>1.017106041382966</v>
+        <v>1.003389841034144</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033298935555574</v>
+        <v>0.9699287655542224</v>
       </c>
       <c r="D23">
-        <v>1.040626854548351</v>
+        <v>0.9859260700513625</v>
       </c>
       <c r="E23">
-        <v>1.032711707379861</v>
+        <v>0.9820390972058105</v>
       </c>
       <c r="F23">
-        <v>1.047296551941715</v>
+        <v>0.9843760324791613</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03419936755819</v>
+        <v>1.038474105197034</v>
       </c>
       <c r="J23">
-        <v>1.040019299583457</v>
+        <v>1.001353898239298</v>
       </c>
       <c r="K23">
-        <v>1.044250241057285</v>
+        <v>1.001462175118227</v>
       </c>
       <c r="L23">
-        <v>1.03636504125156</v>
+        <v>0.9976536785681117</v>
       </c>
       <c r="M23">
-        <v>1.050895092208162</v>
+        <v>0.9999433343147933</v>
       </c>
       <c r="N23">
-        <v>1.017217209663561</v>
+        <v>1.004032746149186</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035125950741368</v>
+        <v>0.98032646303681</v>
       </c>
       <c r="D24">
-        <v>1.042313045072566</v>
+        <v>0.9950140675887192</v>
       </c>
       <c r="E24">
-        <v>1.034270064863678</v>
+        <v>0.9904224114909593</v>
       </c>
       <c r="F24">
-        <v>1.049224371510931</v>
+        <v>0.9946094495570882</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034568944372448</v>
+        <v>1.04163687588037</v>
       </c>
       <c r="J24">
-        <v>1.041321386668073</v>
+        <v>1.008603443053899</v>
       </c>
       <c r="K24">
-        <v>1.04566122294135</v>
+        <v>1.009129311225566</v>
       </c>
       <c r="L24">
-        <v>1.037646174308527</v>
+        <v>1.004619834172276</v>
       </c>
       <c r="M24">
-        <v>1.052548923928829</v>
+        <v>1.008731895263671</v>
       </c>
       <c r="N24">
-        <v>1.017653627463224</v>
+        <v>1.006478793017854</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037241744654515</v>
+        <v>0.9917356925857304</v>
       </c>
       <c r="D25">
-        <v>1.044267362222717</v>
+        <v>1.00502192292912</v>
       </c>
       <c r="E25">
-        <v>1.036076480752786</v>
+        <v>0.9996622519989258</v>
       </c>
       <c r="F25">
-        <v>1.051460284771143</v>
+        <v>1.00588307502649</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034986486498896</v>
+        <v>1.04503177140875</v>
       </c>
       <c r="J25">
-        <v>1.04282588366386</v>
+        <v>1.016544420859415</v>
       </c>
       <c r="K25">
-        <v>1.047293516620539</v>
+        <v>1.017542777037409</v>
       </c>
       <c r="L25">
-        <v>1.039128141389411</v>
+        <v>1.01226581333365</v>
       </c>
       <c r="M25">
-        <v>1.054464398093522</v>
+        <v>1.018390745182742</v>
       </c>
       <c r="N25">
-        <v>1.018157517071797</v>
+        <v>1.00915790996736</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_19/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,989 +412,1145 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1.05</v>
-      </c>
       <c r="C2">
-        <v>1.000371991593493</v>
+        <v>0.9674550498775369</v>
       </c>
       <c r="D2">
-        <v>1.012622727328618</v>
+        <v>0.9853064488082781</v>
       </c>
       <c r="E2">
-        <v>1.006685221182309</v>
+        <v>0.9770291573647162</v>
       </c>
       <c r="F2">
-        <v>1.014450025836145</v>
+        <v>1.00252386273589</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1.047538000685152</v>
-      </c>
       <c r="J2">
-        <v>1.022541582144533</v>
+        <v>0.9906547444644322</v>
       </c>
       <c r="K2">
-        <v>1.023908964504771</v>
+        <v>0.9969743560810764</v>
       </c>
       <c r="L2">
-        <v>1.018052199366714</v>
+        <v>0.9888180681363123</v>
       </c>
       <c r="M2">
-        <v>1.025711653594912</v>
+        <v>1.013948147772773</v>
       </c>
       <c r="N2">
-        <v>1.011180711817807</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.9980730409465294</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.019611102527493</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.008929429912344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1.05</v>
-      </c>
       <c r="C3">
-        <v>1.006402105711106</v>
+        <v>0.9742898206476418</v>
       </c>
       <c r="D3">
-        <v>1.017943047083465</v>
+        <v>0.9906241182701845</v>
       </c>
       <c r="E3">
-        <v>1.011603827680915</v>
+        <v>0.9827826052599594</v>
       </c>
       <c r="F3">
-        <v>1.020449971462513</v>
+        <v>1.006907261470046</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>1.049249680042092</v>
-      </c>
       <c r="J3">
-        <v>1.026719751447338</v>
+        <v>0.9955067840161623</v>
       </c>
       <c r="K3">
-        <v>1.02835137762136</v>
+        <v>1.001378387781752</v>
       </c>
       <c r="L3">
-        <v>1.022090357452644</v>
+        <v>0.9936406313718732</v>
       </c>
       <c r="M3">
-        <v>1.030827710299181</v>
+        <v>1.017452518934059</v>
       </c>
       <c r="N3">
-        <v>1.012589530857433</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.000049397878891</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.022384655140047</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.012040962397813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1.05</v>
-      </c>
       <c r="C4">
-        <v>1.010200952517595</v>
+        <v>0.9785807041110618</v>
       </c>
       <c r="D4">
-        <v>1.021300444156553</v>
+        <v>0.9939696076165905</v>
       </c>
       <c r="E4">
-        <v>1.014708877002866</v>
+        <v>0.9863989406577751</v>
       </c>
       <c r="F4">
-        <v>1.024237972952941</v>
+        <v>1.009675080467275</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>1.050309829206235</v>
-      </c>
       <c r="J4">
-        <v>1.029347268039935</v>
+        <v>0.9985486539962515</v>
       </c>
       <c r="K4">
-        <v>1.031148412920817</v>
+        <v>1.004141363210431</v>
       </c>
       <c r="L4">
-        <v>1.024632961866217</v>
+        <v>0.9966643384351345</v>
       </c>
       <c r="M4">
-        <v>1.034052409877983</v>
+        <v>1.019658121566489</v>
       </c>
       <c r="N4">
-        <v>1.013475236627418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.00128408538587</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.024130284850642</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.013995712095109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1.05</v>
-      </c>
       <c r="C5">
-        <v>1.011774453661208</v>
+        <v>0.9803677440049717</v>
       </c>
       <c r="D5">
-        <v>1.022692408015546</v>
+        <v>0.9953682925789662</v>
       </c>
       <c r="E5">
-        <v>1.015996478875264</v>
+        <v>0.9879074536469324</v>
       </c>
       <c r="F5">
-        <v>1.025808902319022</v>
+        <v>1.010828700556209</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>1.050744515679944</v>
-      </c>
       <c r="J5">
-        <v>1.030434430440689</v>
+        <v>0.9998178629266662</v>
       </c>
       <c r="K5">
-        <v>1.032306524551513</v>
+        <v>1.005296928943478</v>
       </c>
       <c r="L5">
-        <v>1.025685741172585</v>
+        <v>0.9979257235549351</v>
       </c>
       <c r="M5">
-        <v>1.035388455001416</v>
+        <v>1.020576798695385</v>
       </c>
       <c r="N5">
-        <v>1.013841638518902</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.001799612876056</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.02485737283185</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.014820280809376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1.05</v>
-      </c>
       <c r="C6">
-        <v>1.012037302895804</v>
+        <v>0.9806819322019505</v>
       </c>
       <c r="D6">
-        <v>1.022925007599615</v>
+        <v>0.995618858534509</v>
       </c>
       <c r="E6">
-        <v>1.016211654239016</v>
+        <v>0.9881745068186878</v>
       </c>
       <c r="F6">
-        <v>1.02607143383511</v>
+        <v>1.011028351225007</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>1.050816866186235</v>
-      </c>
       <c r="J6">
-        <v>1.030615967856303</v>
+        <v>1.000045124491889</v>
       </c>
       <c r="K6">
-        <v>1.032499957055067</v>
+        <v>1.005506583781965</v>
       </c>
       <c r="L6">
-        <v>1.025861581270442</v>
+        <v>0.9981512233045104</v>
       </c>
       <c r="M6">
-        <v>1.035611657603406</v>
+        <v>1.020737007657413</v>
       </c>
       <c r="N6">
-        <v>1.013902817129072</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.001893639510525</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.024984170303964</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.014977584161754</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1.05</v>
-      </c>
       <c r="C7">
-        <v>1.010222068747225</v>
+        <v>0.9786479658229504</v>
       </c>
       <c r="D7">
-        <v>1.021319119049898</v>
+        <v>0.9940345449586906</v>
       </c>
       <c r="E7">
-        <v>1.014726150744285</v>
+        <v>0.9864606008229808</v>
       </c>
       <c r="F7">
-        <v>1.024259047121045</v>
+        <v>1.00970925897803</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>1.050315680282628</v>
-      </c>
       <c r="J7">
-        <v>1.029361862341174</v>
+        <v>0.9986077939103177</v>
       </c>
       <c r="K7">
-        <v>1.031163956448843</v>
+        <v>1.00420247913978</v>
       </c>
       <c r="L7">
-        <v>1.024647091635251</v>
+        <v>0.9967221712380224</v>
       </c>
       <c r="M7">
-        <v>1.034070338112934</v>
+        <v>1.019688934730005</v>
       </c>
       <c r="N7">
-        <v>1.013480155563435</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.001313027070958</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.024154671973973</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.014059761892268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1.05</v>
-      </c>
       <c r="C8">
-        <v>1.00243194032744</v>
+        <v>0.9698503469049737</v>
       </c>
       <c r="D8">
-        <v>1.014438966145393</v>
+        <v>0.9871842841598393</v>
       </c>
       <c r="E8">
-        <v>1.00836407086598</v>
+        <v>0.9790511738725866</v>
       </c>
       <c r="F8">
-        <v>1.016497926346424</v>
+        <v>1.004044696538643</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>1.048126510110838</v>
-      </c>
       <c r="J8">
-        <v>1.023969831600892</v>
+        <v>0.9923708016326791</v>
       </c>
       <c r="K8">
-        <v>1.025426840964063</v>
+        <v>0.998540697204907</v>
       </c>
       <c r="L8">
-        <v>1.019431925004279</v>
+        <v>0.9905225919127042</v>
       </c>
       <c r="M8">
-        <v>1.027458965431539</v>
+        <v>1.015170157170129</v>
       </c>
       <c r="N8">
-        <v>1.011662346697022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>0.9987795256957407</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.020578269464653</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.010060892704816</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1.05</v>
-      </c>
       <c r="C9">
-        <v>0.9878601688855954</v>
+        <v>0.9531812734340497</v>
       </c>
       <c r="D9">
-        <v>1.001618195265634</v>
+        <v>0.9742465909889918</v>
       </c>
       <c r="E9">
-        <v>0.9965188046246808</v>
+        <v>0.9650439267004916</v>
       </c>
       <c r="F9">
-        <v>1.002048170806344</v>
+        <v>0.9934653224055467</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>1.043888474010086</v>
-      </c>
       <c r="J9">
-        <v>1.013849021419203</v>
+        <v>0.9805030031623249</v>
       </c>
       <c r="K9">
-        <v>1.014685072825492</v>
+        <v>0.9877717919194284</v>
       </c>
       <c r="L9">
-        <v>1.00966861543014</v>
+        <v>0.9787308004757618</v>
       </c>
       <c r="M9">
-        <v>1.015108105042342</v>
+        <v>1.006665317457124</v>
       </c>
       <c r="N9">
-        <v>1.008248599193274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.9939174027499317</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.013847031935645</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.002442521311302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1.05</v>
-      </c>
       <c r="C10">
-        <v>0.9774925973255557</v>
+        <v>0.9415478713277617</v>
       </c>
       <c r="D10">
-        <v>0.9925340940176369</v>
+        <v>0.9652980516152384</v>
       </c>
       <c r="E10">
-        <v>0.9881340408425783</v>
+        <v>0.955336205259</v>
       </c>
       <c r="F10">
-        <v>0.9918166205639678</v>
+        <v>0.9864207296136965</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>1.040780811825287</v>
-      </c>
       <c r="J10">
-        <v>1.006628569783574</v>
+        <v>0.9722891768694416</v>
       </c>
       <c r="K10">
-        <v>1.007039468911936</v>
+        <v>0.9803234612885482</v>
       </c>
       <c r="L10">
-        <v>1.002720895650213</v>
+        <v>0.9705615859991416</v>
       </c>
       <c r="M10">
-        <v>1.006335217296385</v>
+        <v>1.001039568094761</v>
       </c>
       <c r="N10">
-        <v>1.00581245785036</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.9905579621308643</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.0094477568238</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>0.9971931822390466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.05</v>
-      </c>
       <c r="C11">
-        <v>0.9728268079922796</v>
+        <v>0.9390651224301539</v>
       </c>
       <c r="D11">
-        <v>0.9884559706136924</v>
+        <v>0.96364667655824</v>
       </c>
       <c r="E11">
-        <v>0.9843721234048509</v>
+        <v>0.9535489139680653</v>
       </c>
       <c r="F11">
-        <v>0.9872245290917985</v>
+        <v>0.9868251537020603</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>1.039361482177044</v>
-      </c>
       <c r="J11">
-        <v>1.003375405924088</v>
+        <v>0.9712125460411519</v>
       </c>
       <c r="K11">
-        <v>1.003598924241238</v>
+        <v>0.9792883457596286</v>
       </c>
       <c r="L11">
-        <v>0.9995949015877046</v>
+        <v>0.969403419600803</v>
       </c>
       <c r="M11">
-        <v>1.002391461763699</v>
+        <v>1.00199988000492</v>
       </c>
       <c r="N11">
-        <v>1.004714812099033</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9903153918711717</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.010658447590983</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>0.9964958618294133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1.05</v>
-      </c>
       <c r="C12">
-        <v>0.9710651273612938</v>
+        <v>0.9391505431010034</v>
       </c>
       <c r="D12">
-        <v>0.9869177931091946</v>
+        <v>0.9638970183033414</v>
       </c>
       <c r="E12">
-        <v>0.9829535798829274</v>
+        <v>0.9538410024933711</v>
       </c>
       <c r="F12">
-        <v>0.9854926261925664</v>
+        <v>0.9881974574554127</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>1.038822565855846</v>
-      </c>
       <c r="J12">
-        <v>1.002146631222594</v>
+        <v>0.9717736976088041</v>
       </c>
       <c r="K12">
-        <v>1.002299993912396</v>
+        <v>0.9797501960821426</v>
       </c>
       <c r="L12">
-        <v>0.9984148151209897</v>
+        <v>0.9699093891059407</v>
       </c>
       <c r="M12">
-        <v>1.000903144277688</v>
+        <v>1.003554323450687</v>
       </c>
       <c r="N12">
-        <v>1.004300216442429</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.990717956719345</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.012223635860999</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>0.996822439022259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>1.05</v>
-      </c>
       <c r="C13">
-        <v>0.971444343671914</v>
+        <v>0.9412562254955165</v>
       </c>
       <c r="D13">
-        <v>0.987248823793228</v>
+        <v>0.9656680413463745</v>
       </c>
       <c r="E13">
-        <v>0.9832588470503931</v>
+        <v>0.9557862425528757</v>
       </c>
       <c r="F13">
-        <v>0.9858653432047718</v>
+        <v>0.9904387801371934</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>1.03893870637382</v>
-      </c>
       <c r="J13">
-        <v>1.002411154581316</v>
+        <v>0.9736703670193382</v>
       </c>
       <c r="K13">
-        <v>1.002579591996232</v>
+        <v>0.9814375703928137</v>
       </c>
       <c r="L13">
-        <v>0.9986688274706063</v>
+        <v>0.971765453599775</v>
       </c>
       <c r="M13">
-        <v>1.001223481954863</v>
+        <v>1.005706821160616</v>
       </c>
       <c r="N13">
-        <v>1.004389467808932</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9916646830948246</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.014208756226957</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>0.9980129660588055</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>1.05</v>
-      </c>
       <c r="C14">
-        <v>0.9726817830906974</v>
+        <v>0.9436125720564958</v>
       </c>
       <c r="D14">
-        <v>0.9883293114875656</v>
+        <v>0.9675726996025772</v>
       </c>
       <c r="E14">
-        <v>0.9842553077226728</v>
+        <v>0.957868858635966</v>
       </c>
       <c r="F14">
-        <v>0.9870819154863887</v>
+        <v>0.9923608067548718</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>1.039317178102888</v>
-      </c>
       <c r="J14">
-        <v>1.003274259737429</v>
+        <v>0.9755743271759424</v>
       </c>
       <c r="K14">
-        <v>1.003491990640589</v>
+        <v>0.9831510115357162</v>
       </c>
       <c r="L14">
-        <v>0.9994977498260721</v>
+        <v>0.973649663250893</v>
       </c>
       <c r="M14">
-        <v>1.002268925057656</v>
+        <v>1.007445399578772</v>
       </c>
       <c r="N14">
-        <v>1.004680684657962</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.992563524525739</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.015759716983119</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>0.9992260447436443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1.05</v>
-      </c>
       <c r="C15">
-        <v>0.9734403550421439</v>
+        <v>0.9446539142322936</v>
       </c>
       <c r="D15">
-        <v>0.9889918851989451</v>
+        <v>0.9683948832024268</v>
       </c>
       <c r="E15">
-        <v>0.9848664040035817</v>
+        <v>0.9587618732038884</v>
       </c>
       <c r="F15">
-        <v>0.9878279546887813</v>
+        <v>0.9930769355945884</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>1.039548794442016</v>
-      </c>
       <c r="J15">
-        <v>1.003803299911253</v>
+        <v>0.9763589284847286</v>
       </c>
       <c r="K15">
-        <v>1.004051326839213</v>
+        <v>0.9838630935582148</v>
       </c>
       <c r="L15">
-        <v>1.000005924020012</v>
+        <v>0.9744292334139548</v>
       </c>
       <c r="M15">
-        <v>1.002909900239513</v>
+        <v>1.008057941411137</v>
       </c>
       <c r="N15">
-        <v>1.004859186776856</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9929127439385433</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.016282033634215</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>0.9997357247651896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1.05</v>
-      </c>
       <c r="C16">
-        <v>0.9777983584533895</v>
+        <v>0.949113137612218</v>
       </c>
       <c r="D16">
-        <v>0.9928015611145129</v>
+        <v>0.9717863544550193</v>
       </c>
       <c r="E16">
-        <v>0.9883808185268121</v>
+        <v>0.962431670958777</v>
       </c>
       <c r="F16">
-        <v>0.9921178172468594</v>
+        <v>0.995629237483123</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>1.040873402084011</v>
-      </c>
       <c r="J16">
-        <v>1.006841688747109</v>
+        <v>0.9794182433391135</v>
       </c>
       <c r="K16">
-        <v>1.00726494946366</v>
+        <v>0.9866461711849921</v>
       </c>
       <c r="L16">
-        <v>1.002925773292349</v>
+        <v>0.9774752748048037</v>
       </c>
       <c r="M16">
-        <v>1.006593759341664</v>
+        <v>1.010040947109212</v>
       </c>
       <c r="N16">
-        <v>1.005884365958705</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.9941288526800547</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.017809991295465</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.001706947803514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1.05</v>
-      </c>
       <c r="C17">
-        <v>0.9804833518354458</v>
+        <v>0.9513218654712569</v>
       </c>
       <c r="D17">
-        <v>0.9951514314200282</v>
+        <v>0.9734113006517218</v>
       </c>
       <c r="E17">
-        <v>0.9905491776670974</v>
+        <v>0.9641778916556736</v>
       </c>
       <c r="F17">
-        <v>0.9947641499392809</v>
+        <v>0.9965954979463637</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>1.041684130594123</v>
-      </c>
       <c r="J17">
-        <v>1.008712751534445</v>
+        <v>0.9807883320937283</v>
       </c>
       <c r="K17">
-        <v>1.009245011063098</v>
+        <v>0.9879021601024793</v>
       </c>
       <c r="L17">
-        <v>1.004724968363213</v>
+        <v>0.9788445835815658</v>
       </c>
       <c r="M17">
-        <v>1.008864609634544</v>
+        <v>1.010663484903778</v>
       </c>
       <c r="N17">
-        <v>1.006515674111959</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.9945983572626887</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.018170713861253</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.002597759505457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1.05</v>
-      </c>
       <c r="C18">
-        <v>0.9820325783260666</v>
+        <v>0.9517111840624856</v>
       </c>
       <c r="D18">
-        <v>0.9965082345835056</v>
+        <v>0.973578878739469</v>
       </c>
       <c r="E18">
-        <v>0.9918013878256993</v>
+        <v>0.964344293101107</v>
       </c>
       <c r="F18">
-        <v>0.9962922410084304</v>
+        <v>0.996086484173406</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>1.042149951433322</v>
-      </c>
       <c r="J18">
-        <v>1.009791989978233</v>
+        <v>0.9807313523158224</v>
       </c>
       <c r="K18">
-        <v>1.010387513883674</v>
+        <v>0.9878698116607446</v>
       </c>
       <c r="L18">
-        <v>1.005763156745799</v>
+        <v>0.9788082460020786</v>
       </c>
       <c r="M18">
-        <v>1.010175283600502</v>
+        <v>1.009973113666458</v>
       </c>
       <c r="N18">
-        <v>1.006879810804841</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9944280468892216</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.017382330056529</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.002562701098813</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>1.05</v>
-      </c>
       <c r="C19">
-        <v>0.9825580200243286</v>
+        <v>0.9505202306776058</v>
       </c>
       <c r="D19">
-        <v>0.9969685698738634</v>
+        <v>0.9725028443490237</v>
       </c>
       <c r="E19">
-        <v>0.9922262717545852</v>
+        <v>0.9631542555706029</v>
       </c>
       <c r="F19">
-        <v>0.9968107109353863</v>
+        <v>0.9941652448091942</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>1.042307604692211</v>
-      </c>
       <c r="J19">
-        <v>1.010157965994037</v>
+        <v>0.9794458077293742</v>
       </c>
       <c r="K19">
-        <v>1.010775010095667</v>
+        <v>0.9867465203989293</v>
       </c>
       <c r="L19">
-        <v>1.006115280650671</v>
+        <v>0.9775726712160829</v>
       </c>
       <c r="M19">
-        <v>1.01061988330184</v>
+        <v>1.008020370771059</v>
       </c>
       <c r="N19">
-        <v>1.007003290514587</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9937362669165641</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.015504605410459</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.001775131279672</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1.05</v>
-      </c>
       <c r="C20">
-        <v>0.9801970382068905</v>
+        <v>0.9447404660335036</v>
       </c>
       <c r="D20">
-        <v>0.9949007551239379</v>
+        <v>0.9677854260613425</v>
       </c>
       <c r="E20">
-        <v>0.9903178423010157</v>
+        <v>0.9580153470537612</v>
       </c>
       <c r="F20">
-        <v>0.994481836680348</v>
+        <v>0.9883337230153301</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>1.041597882133076</v>
-      </c>
       <c r="J20">
-        <v>1.008513267409222</v>
+        <v>0.9745812809992206</v>
       </c>
       <c r="K20">
-        <v>1.009033865165937</v>
+        <v>0.9824194121333121</v>
       </c>
       <c r="L20">
-        <v>1.00453310445506</v>
+        <v>0.9728389304563636</v>
       </c>
       <c r="M20">
-        <v>1.008622415325086</v>
+        <v>1.002584859363221</v>
       </c>
       <c r="N20">
-        <v>1.006448367384882</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9915134763546161</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.010659807270516</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>0.9987195736057549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>1.05</v>
-      </c>
       <c r="C21">
-        <v>0.9723181952344894</v>
+        <v>0.9353192821660585</v>
       </c>
       <c r="D21">
-        <v>0.9880117943212589</v>
+        <v>0.9605082820224667</v>
       </c>
       <c r="E21">
-        <v>0.9839624727586291</v>
+        <v>0.9501175672998722</v>
       </c>
       <c r="F21">
-        <v>0.9867244045903741</v>
+        <v>0.9822940334990325</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>1.039206056474311</v>
-      </c>
       <c r="J21">
-        <v>1.003020671818188</v>
+        <v>0.9677943410888457</v>
       </c>
       <c r="K21">
-        <v>1.003223902826013</v>
+        <v>0.9762785585760114</v>
       </c>
       <c r="L21">
-        <v>0.9992541870573239</v>
+        <v>0.9661098863943396</v>
       </c>
       <c r="M21">
-        <v>1.001961728968211</v>
+        <v>0.9976187986527968</v>
       </c>
       <c r="N21">
-        <v>1.004595122389323</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9886973794903078</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.006687001056469</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>0.9943807785171876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>1.05</v>
-      </c>
       <c r="C22">
-        <v>0.9671977976634608</v>
+        <v>0.9292647464589711</v>
       </c>
       <c r="D22">
-        <v>0.9835442105269802</v>
+        <v>0.9558451779551617</v>
       </c>
       <c r="E22">
-        <v>0.9798430956530836</v>
+        <v>0.9450612511587246</v>
       </c>
       <c r="F22">
-        <v>0.9816943523604538</v>
+        <v>0.978572321250452</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>1.037634077972346</v>
-      </c>
       <c r="J22">
-        <v>0.9994484135700999</v>
+        <v>0.963457214552302</v>
       </c>
       <c r="K22">
-        <v>0.9994488635472812</v>
+        <v>0.9723452084453074</v>
       </c>
       <c r="L22">
-        <v>0.9958247270453621</v>
+        <v>0.9618056979575915</v>
       </c>
       <c r="M22">
-        <v>0.997637384160515</v>
+        <v>0.9945805606997443</v>
       </c>
       <c r="N22">
-        <v>1.003389841034144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9868987853310508</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.004282314707328</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>0.9915851543381379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1.05</v>
-      </c>
       <c r="C23">
-        <v>0.9699287655542224</v>
+        <v>0.9324448531657618</v>
       </c>
       <c r="D23">
-        <v>0.9859260700513625</v>
+        <v>0.9582804514504555</v>
       </c>
       <c r="E23">
-        <v>0.9820390972058105</v>
+        <v>0.9477095249519857</v>
       </c>
       <c r="F23">
-        <v>0.9843760324791613</v>
+        <v>0.9805339264748063</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>1.038474105197034</v>
-      </c>
       <c r="J23">
-        <v>1.001353898239298</v>
+        <v>0.9657230087772947</v>
       </c>
       <c r="K23">
-        <v>1.001462175118227</v>
+        <v>0.9743930845057047</v>
       </c>
       <c r="L23">
-        <v>0.9976536785681117</v>
+        <v>0.9640544504136682</v>
       </c>
       <c r="M23">
-        <v>0.9999433343147933</v>
+        <v>0.9961791168748074</v>
       </c>
       <c r="N23">
-        <v>1.004032746149186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9878325917763903</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.005547531498546</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>0.9930230427443915</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>1.05</v>
-      </c>
       <c r="C24">
-        <v>0.98032646303681</v>
+        <v>0.9445588951530075</v>
       </c>
       <c r="D24">
-        <v>0.9950140675887192</v>
+        <v>0.9676048249436712</v>
       </c>
       <c r="E24">
-        <v>0.9904224114909593</v>
+        <v>0.9578301212806098</v>
       </c>
       <c r="F24">
-        <v>0.9946094495570882</v>
+        <v>0.9880470704143822</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>1.04163687588037</v>
-      </c>
       <c r="J24">
-        <v>1.008603443053899</v>
+        <v>0.9743717869860213</v>
       </c>
       <c r="K24">
-        <v>1.009129311225566</v>
+        <v>0.9822257659923815</v>
       </c>
       <c r="L24">
-        <v>1.004619834172276</v>
+        <v>0.9726405964106721</v>
       </c>
       <c r="M24">
-        <v>1.008731895263671</v>
+        <v>1.002287395578876</v>
       </c>
       <c r="N24">
-        <v>1.006478793017854</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9914023765246405</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.010382056442538</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>0.9985537993069737</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1.05</v>
-      </c>
       <c r="C25">
-        <v>0.9917356925857304</v>
+        <v>0.95771176073683</v>
       </c>
       <c r="D25">
-        <v>1.00502192292912</v>
+        <v>0.9777754119483167</v>
       </c>
       <c r="E25">
-        <v>0.9996622519989258</v>
+        <v>0.9688547776488</v>
       </c>
       <c r="F25">
-        <v>1.00588307502649</v>
+        <v>0.9963077689202778</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>1.04503177140875</v>
-      </c>
       <c r="J25">
-        <v>1.016544420859415</v>
+        <v>0.9837511968057919</v>
       </c>
       <c r="K25">
-        <v>1.017542777037409</v>
+        <v>0.9907288205108208</v>
       </c>
       <c r="L25">
-        <v>1.01226581333365</v>
+        <v>0.981956623716667</v>
       </c>
       <c r="M25">
-        <v>1.018390745182742</v>
+        <v>1.008963673706568</v>
       </c>
       <c r="N25">
-        <v>1.00915790996736</v>
+        <v>0.9952606461305817</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.015666094955286</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.004563455218011</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_19/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,1133 +424,1355 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9674550498775369</v>
+        <v>0.9747146114851726</v>
       </c>
       <c r="D2">
-        <v>0.9853064488082781</v>
+        <v>0.9927062214644276</v>
       </c>
       <c r="E2">
-        <v>0.9770291573647162</v>
+        <v>0.9836633027695187</v>
       </c>
       <c r="F2">
-        <v>1.00252386273589</v>
+        <v>1.005668615888487</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="J2">
-        <v>0.9906547444644322</v>
+        <v>0.9976788335034915</v>
       </c>
       <c r="K2">
-        <v>0.9969743560810764</v>
+        <v>1.004268114246481</v>
       </c>
       <c r="L2">
-        <v>0.9888180681363123</v>
+        <v>0.9953550253265984</v>
       </c>
       <c r="M2">
-        <v>1.013948147772773</v>
+        <v>1.017049538780007</v>
       </c>
       <c r="N2">
-        <v>0.9980730409465294</v>
+        <v>1.004973312730401</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.019611102527493</v>
+        <v>1.022065715003484</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.008929429912344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.014096258396575</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.012227455563995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9742898206476418</v>
+        <v>0.9805122294698049</v>
       </c>
       <c r="D3">
-        <v>0.9906241182701845</v>
+        <v>0.9969539228980079</v>
       </c>
       <c r="E3">
-        <v>0.9827826052599594</v>
+        <v>0.9884720858892687</v>
       </c>
       <c r="F3">
-        <v>1.006907261470046</v>
+        <v>1.009599269397852</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="J3">
-        <v>0.9955067840161623</v>
+        <v>1.001548626523788</v>
       </c>
       <c r="K3">
-        <v>1.001378387781752</v>
+        <v>1.007625927793555</v>
       </c>
       <c r="L3">
-        <v>0.9936406313718732</v>
+        <v>0.9992546249443637</v>
       </c>
       <c r="M3">
-        <v>1.017452518934059</v>
+        <v>1.020110781643839</v>
       </c>
       <c r="N3">
-        <v>1.000049397878891</v>
+        <v>1.006203141542661</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.022384655140047</v>
+        <v>1.024488543242821</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.012040962397813</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.016467640012932</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.013154787333958</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9785807041110618</v>
+        <v>0.9841693865962983</v>
       </c>
       <c r="D4">
-        <v>0.9939696076165905</v>
+        <v>0.9996399052237043</v>
       </c>
       <c r="E4">
-        <v>0.9863989406577751</v>
+        <v>0.9915105536188324</v>
       </c>
       <c r="F4">
-        <v>1.009675080467275</v>
+        <v>1.012090911636385</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="J4">
-        <v>0.9985486539962515</v>
+        <v>1.003986896787961</v>
       </c>
       <c r="K4">
-        <v>1.004141363210431</v>
+        <v>1.009742678215859</v>
       </c>
       <c r="L4">
-        <v>0.9966643384351345</v>
+        <v>1.001712530297155</v>
       </c>
       <c r="M4">
-        <v>1.019658121566489</v>
+        <v>1.022045567764899</v>
       </c>
       <c r="N4">
-        <v>1.00128408538587</v>
+        <v>1.006975736416479</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.024130284850642</v>
+        <v>1.02601983004573</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.013995712095109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.017965462305752</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.013734933550536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9803677440049717</v>
+        <v>0.9856952430241629</v>
       </c>
       <c r="D5">
-        <v>0.9953682925789662</v>
+        <v>1.000765703902937</v>
       </c>
       <c r="E5">
-        <v>0.9879074536469324</v>
+        <v>0.9927806777644829</v>
       </c>
       <c r="F5">
-        <v>1.010828700556209</v>
+        <v>1.013130827326519</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="J5">
-        <v>0.9998178629266662</v>
+        <v>1.005006527680359</v>
       </c>
       <c r="K5">
-        <v>1.005296928943478</v>
+        <v>1.010630527888734</v>
       </c>
       <c r="L5">
-        <v>0.9979257235549351</v>
+        <v>1.002740212099814</v>
       </c>
       <c r="M5">
-        <v>1.020576798695385</v>
+        <v>1.022852624004581</v>
       </c>
       <c r="N5">
-        <v>1.001799612876056</v>
+        <v>1.007299241882625</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.02485737283185</v>
+        <v>1.026658573827986</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.014820280809376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.018601390244469</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.013978404797867</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9806819322019505</v>
+        <v>0.9859623137915173</v>
       </c>
       <c r="D6">
-        <v>0.995618858534509</v>
+        <v>1.000967253919489</v>
       </c>
       <c r="E6">
-        <v>0.9881745068186878</v>
+        <v>0.9930045792930865</v>
       </c>
       <c r="F6">
-        <v>1.011028351225007</v>
+        <v>1.013309984142488</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="J6">
-        <v>1.000045124491889</v>
+        <v>1.005188658750988</v>
       </c>
       <c r="K6">
-        <v>1.005506583781965</v>
+        <v>1.010792054440191</v>
       </c>
       <c r="L6">
-        <v>0.9981512233045104</v>
+        <v>1.002923367682441</v>
       </c>
       <c r="M6">
-        <v>1.020737007657413</v>
+        <v>1.022992697276937</v>
       </c>
       <c r="N6">
-        <v>1.001893639510525</v>
+        <v>1.007358218730067</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.024984170303964</v>
+        <v>1.026769434606201</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.014977584161754</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.018725495262054</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.014024126083592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9786479658229504</v>
+        <v>0.9842378401082831</v>
       </c>
       <c r="D7">
-        <v>0.9940345449586906</v>
+        <v>0.999704149498663</v>
       </c>
       <c r="E7">
-        <v>0.9864606008229808</v>
+        <v>0.9915740613470844</v>
       </c>
       <c r="F7">
-        <v>1.00970925897803</v>
+        <v>1.012125593914901</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="J7">
-        <v>0.9986077939103177</v>
+        <v>1.004047280109621</v>
       </c>
       <c r="K7">
-        <v>1.00420247913978</v>
+        <v>1.009803143821091</v>
       </c>
       <c r="L7">
-        <v>0.9967221712380224</v>
+        <v>1.00177221913077</v>
       </c>
       <c r="M7">
-        <v>1.019688934730005</v>
+        <v>1.022076890685614</v>
       </c>
       <c r="N7">
-        <v>1.001313027070958</v>
+        <v>1.007026239053146</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.024154671973973</v>
+        <v>1.026044620548355</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.014059761892268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.01803097281537</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.013757392593026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9698503469049737</v>
+        <v>0.9767841813056548</v>
       </c>
       <c r="D8">
-        <v>0.9871842841598393</v>
+        <v>0.9942425783967997</v>
       </c>
       <c r="E8">
-        <v>0.9790511738725866</v>
+        <v>0.9853923226608768</v>
       </c>
       <c r="F8">
-        <v>1.004044696538643</v>
+        <v>1.00704704420724</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="J8">
-        <v>0.9923708016326791</v>
+        <v>0.9990879491919559</v>
       </c>
       <c r="K8">
-        <v>0.998540697204907</v>
+        <v>1.005501106575601</v>
       </c>
       <c r="L8">
-        <v>0.9905225919127042</v>
+        <v>0.9967738686683811</v>
       </c>
       <c r="M8">
-        <v>1.015170157170129</v>
+        <v>1.018132397483712</v>
       </c>
       <c r="N8">
-        <v>0.9987795256957407</v>
+        <v>1.005511955565283</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.020578269464653</v>
+        <v>1.022922747196239</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.010060892704816</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.014994129037489</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.012580187800726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9531812734340497</v>
+        <v>0.9627743075941634</v>
       </c>
       <c r="D9">
-        <v>0.9742465909889918</v>
+        <v>0.9840071729591366</v>
       </c>
       <c r="E9">
-        <v>0.9650439267004916</v>
+        <v>0.9738024068608011</v>
       </c>
       <c r="F9">
-        <v>0.9934653224055467</v>
+        <v>0.9976314165251352</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="J9">
-        <v>0.9805030031623249</v>
+        <v>0.9897137323111371</v>
       </c>
       <c r="K9">
-        <v>0.9877717919194284</v>
+        <v>0.9973651637342096</v>
       </c>
       <c r="L9">
-        <v>0.9787308004757618</v>
+        <v>0.9873353203949509</v>
       </c>
       <c r="M9">
-        <v>1.006665317457124</v>
+        <v>1.010763039591671</v>
       </c>
       <c r="N9">
-        <v>0.9939174027499317</v>
+        <v>1.002529190540586</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.013847031935645</v>
+        <v>1.017090222248259</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.002442521311302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.009237518671656</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.010305738399031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9415478713277617</v>
+        <v>0.9531697941729577</v>
       </c>
       <c r="D10">
-        <v>0.9652980516152384</v>
+        <v>0.977071508050456</v>
       </c>
       <c r="E10">
-        <v>0.955336205259</v>
+        <v>0.9659340854952845</v>
       </c>
       <c r="F10">
-        <v>0.9864207296136965</v>
+        <v>0.9914719649612508</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="J10">
-        <v>0.9722891768694416</v>
+        <v>0.9833730392499909</v>
       </c>
       <c r="K10">
-        <v>0.9803234612885482</v>
+        <v>0.9918674625225811</v>
       </c>
       <c r="L10">
-        <v>0.9705615859991416</v>
+        <v>0.980946911620583</v>
       </c>
       <c r="M10">
-        <v>1.001039568094761</v>
+        <v>1.005996921989575</v>
       </c>
       <c r="N10">
-        <v>0.9905579621308643</v>
+        <v>1.000641764992567</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.0094477568238</v>
+        <v>1.013371075732545</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>0.9971931822390466</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.005369234149248</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.008772521392709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9390651224301539</v>
+        <v>0.9510313296409167</v>
       </c>
       <c r="D11">
-        <v>0.96364667655824</v>
+        <v>0.975765473214978</v>
       </c>
       <c r="E11">
-        <v>0.9535489139680653</v>
+        <v>0.9644445685858836</v>
       </c>
       <c r="F11">
-        <v>0.9868251537020603</v>
+        <v>0.9919816506012776</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="J11">
-        <v>0.9712125460411519</v>
+        <v>0.9825933467449562</v>
       </c>
       <c r="K11">
-        <v>0.9792883457596286</v>
+        <v>0.9911593606071814</v>
       </c>
       <c r="L11">
-        <v>0.969403419600803</v>
+        <v>0.9800696710786758</v>
       </c>
       <c r="M11">
-        <v>1.00199988000492</v>
+        <v>1.00705638218953</v>
       </c>
       <c r="N11">
-        <v>0.9903153918711717</v>
+        <v>1.000777148231055</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.010658447590983</v>
+        <v>1.014658088597589</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>0.9964958618294133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.004906102587668</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.008712628690282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9391505431010034</v>
+        <v>0.950975467567398</v>
       </c>
       <c r="D12">
-        <v>0.9638970183033414</v>
+        <v>0.9758892488389225</v>
       </c>
       <c r="E12">
-        <v>0.9538410024933711</v>
+        <v>0.9645917767101122</v>
       </c>
       <c r="F12">
-        <v>0.9881974574554127</v>
+        <v>0.993261513011319</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="J12">
-        <v>0.9717736976088041</v>
+        <v>0.9830099815366589</v>
       </c>
       <c r="K12">
-        <v>0.9797501960821426</v>
+        <v>0.9914934243773794</v>
       </c>
       <c r="L12">
-        <v>0.9699093891059407</v>
+        <v>0.9804303052085835</v>
       </c>
       <c r="M12">
-        <v>1.003554323450687</v>
+        <v>1.008518960582275</v>
       </c>
       <c r="N12">
-        <v>0.990717956719345</v>
+        <v>1.00113278120868</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.012223635860999</v>
+        <v>1.016149211391118</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>0.996822439022259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.005142310029845</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.008911353051573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9412562254955165</v>
+        <v>0.9525265549016976</v>
       </c>
       <c r="D13">
-        <v>0.9656680413463745</v>
+        <v>0.9771346834477208</v>
       </c>
       <c r="E13">
-        <v>0.9557862425528757</v>
+        <v>0.9660118272678725</v>
       </c>
       <c r="F13">
-        <v>0.9904387801371934</v>
+        <v>0.9952420369181787</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="J13">
-        <v>0.9736703670193382</v>
+        <v>0.98438486496791</v>
       </c>
       <c r="K13">
-        <v>0.9814375703928137</v>
+        <v>0.992667903896043</v>
       </c>
       <c r="L13">
-        <v>0.971765453599775</v>
+        <v>0.9817741635954335</v>
       </c>
       <c r="M13">
-        <v>1.005706821160616</v>
+        <v>1.01041662079593</v>
       </c>
       <c r="N13">
-        <v>0.9916646830948246</v>
+        <v>1.00165028980801</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.014208756226957</v>
+        <v>1.017931856617523</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>0.9980129660588055</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.005969906132082</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.009329007160068</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9436125720564958</v>
+        <v>0.954320894587807</v>
       </c>
       <c r="D14">
-        <v>0.9675726996025772</v>
+        <v>0.9785027762311193</v>
       </c>
       <c r="E14">
-        <v>0.957868858635966</v>
+        <v>0.9675670840586267</v>
       </c>
       <c r="F14">
-        <v>0.9923608067548718</v>
+        <v>0.9969124015659497</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="J14">
-        <v>0.9755743271759424</v>
+        <v>0.9857642586565465</v>
       </c>
       <c r="K14">
-        <v>0.9831510115357162</v>
+        <v>0.9938593321371771</v>
       </c>
       <c r="L14">
-        <v>0.973649663250893</v>
+        <v>0.9831455116228585</v>
       </c>
       <c r="M14">
-        <v>1.007445399578772</v>
+        <v>1.011909826967882</v>
       </c>
       <c r="N14">
-        <v>0.992563524525739</v>
+        <v>1.002083570378667</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.015759716983119</v>
+        <v>1.019288362514251</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>0.9992260447436443</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.006813957086185</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.009718535585153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9446539142322936</v>
+        <v>0.9551343854173109</v>
       </c>
       <c r="D15">
-        <v>0.9683948832024268</v>
+        <v>0.9791054154904539</v>
       </c>
       <c r="E15">
-        <v>0.9587618732038884</v>
+        <v>0.9682484196736747</v>
       </c>
       <c r="F15">
-        <v>0.9930769355945884</v>
+        <v>0.9975293872409307</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="J15">
-        <v>0.9763589284847286</v>
+        <v>0.9863373002138318</v>
       </c>
       <c r="K15">
-        <v>0.9838630935582148</v>
+        <v>0.9943582440068405</v>
       </c>
       <c r="L15">
-        <v>0.9744292334139548</v>
+        <v>0.9837196188602326</v>
       </c>
       <c r="M15">
-        <v>1.008057941411137</v>
+        <v>1.012425858928634</v>
       </c>
       <c r="N15">
-        <v>0.9929127439385433</v>
+        <v>1.002236936942239</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.016282033634215</v>
+        <v>1.019734306774172</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>0.9997357247651896</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.007173415914578</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.009869844307987</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.949113137612218</v>
+        <v>0.9587576578433281</v>
       </c>
       <c r="D16">
-        <v>0.9717863544550193</v>
+        <v>0.9816749638179113</v>
       </c>
       <c r="E16">
-        <v>0.962431670958777</v>
+        <v>0.9711567894493781</v>
       </c>
       <c r="F16">
-        <v>0.995629237483123</v>
+        <v>0.9997291151768634</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="J16">
-        <v>0.9794182433391135</v>
+        <v>0.9886264616903299</v>
       </c>
       <c r="K16">
-        <v>0.9866461711849921</v>
+        <v>0.9963454799862003</v>
       </c>
       <c r="L16">
-        <v>0.9774752748048037</v>
+        <v>0.9860288292655782</v>
       </c>
       <c r="M16">
-        <v>1.010040947109212</v>
+        <v>1.014066570123707</v>
       </c>
       <c r="N16">
-        <v>0.9941288526800547</v>
+        <v>1.002714361095549</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.017809991295465</v>
+        <v>1.020991820410892</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.001706947803514</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.008582131330035</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.010394849854652</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9513218654712569</v>
+        <v>0.9606311900476643</v>
       </c>
       <c r="D17">
-        <v>0.9734113006517218</v>
+        <v>0.982959626253099</v>
       </c>
       <c r="E17">
-        <v>0.9641778916556736</v>
+        <v>0.9726067581761768</v>
       </c>
       <c r="F17">
-        <v>0.9965954979463637</v>
+        <v>1.000560164707453</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="J17">
-        <v>0.9807883320937283</v>
+        <v>0.9896910903299794</v>
       </c>
       <c r="K17">
-        <v>0.9879021601024793</v>
+        <v>0.9972731807631787</v>
       </c>
       <c r="L17">
-        <v>0.9788445835815658</v>
+        <v>0.9871127651215263</v>
       </c>
       <c r="M17">
-        <v>1.010663484903778</v>
+        <v>1.014558379330988</v>
       </c>
       <c r="N17">
-        <v>0.9945983572626887</v>
+        <v>1.002892544959258</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.018170713861253</v>
+        <v>1.021249531441651</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.002597759505457</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.009241022500461</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.010602620292221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9517111840624856</v>
+        <v>0.9610725547705826</v>
       </c>
       <c r="D18">
-        <v>0.973578878739469</v>
+        <v>0.9831631896829857</v>
       </c>
       <c r="E18">
-        <v>0.964344293101107</v>
+        <v>0.9728363824668216</v>
       </c>
       <c r="F18">
-        <v>0.996086484173406</v>
+        <v>1.000087842516807</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="J18">
-        <v>0.9807313523158224</v>
+        <v>0.9896913790980433</v>
       </c>
       <c r="K18">
-        <v>0.9878698116607446</v>
+        <v>0.9972790181571213</v>
       </c>
       <c r="L18">
-        <v>0.9788082460020786</v>
+        <v>0.987141068506435</v>
       </c>
       <c r="M18">
-        <v>1.009973113666458</v>
+        <v>1.013905059856747</v>
       </c>
       <c r="N18">
-        <v>0.9944280468892216</v>
+        <v>1.00275429226846</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.017382330056529</v>
+        <v>1.020491106660639</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.002562701098813</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.009231908435565</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.010523260238521</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9505202306776058</v>
+        <v>0.9602404042384263</v>
       </c>
       <c r="D19">
-        <v>0.9725028443490237</v>
+        <v>0.9824262690578383</v>
       </c>
       <c r="E19">
-        <v>0.9631542555706029</v>
+        <v>0.9719913359778205</v>
       </c>
       <c r="F19">
-        <v>0.9941652448091942</v>
+        <v>0.9983433543837834</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="J19">
-        <v>0.9794458077293742</v>
+        <v>0.9887504682466336</v>
       </c>
       <c r="K19">
-        <v>0.9867465203989293</v>
+        <v>0.9964891888482486</v>
       </c>
       <c r="L19">
-        <v>0.9775726712160829</v>
+        <v>0.9862444596004198</v>
       </c>
       <c r="M19">
-        <v>1.008020370771059</v>
+        <v>1.012126047752557</v>
       </c>
       <c r="N19">
-        <v>0.9937362669165641</v>
+        <v>1.002336238317848</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.015504605410459</v>
+        <v>1.018751850874148</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.001775131279672</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.008680730383579</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.01020941676968</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9447404660335036</v>
+        <v>0.9557350254450454</v>
       </c>
       <c r="D20">
-        <v>0.9677854260613425</v>
+        <v>0.9789467929253723</v>
       </c>
       <c r="E20">
-        <v>0.9580153470537612</v>
+        <v>0.9680388241835398</v>
       </c>
       <c r="F20">
-        <v>0.9883337230153301</v>
+        <v>0.9931111561323444</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="J20">
-        <v>0.9745812809992206</v>
+        <v>0.9850857798721717</v>
       </c>
       <c r="K20">
-        <v>0.9824194121333121</v>
+        <v>0.9933702227688805</v>
       </c>
       <c r="L20">
-        <v>0.9728389304563636</v>
+        <v>0.9826679594686798</v>
       </c>
       <c r="M20">
-        <v>1.002584859363221</v>
+        <v>1.007276228871679</v>
       </c>
       <c r="N20">
-        <v>0.9915134763546161</v>
+        <v>1.001088466202963</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.010659807270516</v>
+        <v>1.014372667196474</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>0.9987195736057549</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.006479888011428</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.009199858138575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9353192821660585</v>
+        <v>0.9482772076870787</v>
       </c>
       <c r="D21">
-        <v>0.9605082820224667</v>
+        <v>0.9735726979833661</v>
       </c>
       <c r="E21">
-        <v>0.9501175672998722</v>
+        <v>0.9619472615318936</v>
       </c>
       <c r="F21">
-        <v>0.9822940334990325</v>
+        <v>0.9879373811766254</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="J21">
-        <v>0.9677943410888457</v>
+        <v>0.9801087341513359</v>
       </c>
       <c r="K21">
-        <v>0.9762785585760114</v>
+        <v>0.98907265783792</v>
       </c>
       <c r="L21">
-        <v>0.9661098863943396</v>
+        <v>0.9776872881386048</v>
       </c>
       <c r="M21">
-        <v>0.9976187986527968</v>
+        <v>1.003150944850503</v>
       </c>
       <c r="N21">
-        <v>0.9886973794903078</v>
+        <v>0.9999524594996251</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.006687001056469</v>
+        <v>1.011065527634876</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>0.9943807785171876</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.003444902052849</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.008005553226845</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9292647464589711</v>
+        <v>0.9435215654172562</v>
       </c>
       <c r="D22">
-        <v>0.9558451779551617</v>
+        <v>0.9701589965661463</v>
       </c>
       <c r="E22">
-        <v>0.9450612511587246</v>
+        <v>0.9580843967215191</v>
       </c>
       <c r="F22">
-        <v>0.978572321250452</v>
+        <v>0.9847865923071952</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="J22">
-        <v>0.963457214552302</v>
+        <v>0.9769576071214975</v>
       </c>
       <c r="K22">
-        <v>0.9723452084453074</v>
+        <v>0.9863457300089948</v>
       </c>
       <c r="L22">
-        <v>0.9618056979575915</v>
+        <v>0.9745345936095837</v>
       </c>
       <c r="M22">
-        <v>0.9945805606997443</v>
+        <v>1.000665576617026</v>
       </c>
       <c r="N22">
-        <v>0.9868987853310508</v>
+        <v>0.9992338912662163</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.004282314707328</v>
+        <v>1.009098437465813</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>0.9915851543381379</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.001501270572315</v>
+      </c>
+      <c r="S22">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T22">
+        <v>1.007249095495472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9324448531657618</v>
+        <v>0.9459920029096672</v>
       </c>
       <c r="D23">
-        <v>0.9582804514504555</v>
+        <v>0.9719139744987346</v>
       </c>
       <c r="E23">
-        <v>0.9477095249519857</v>
+        <v>0.9600778822517336</v>
       </c>
       <c r="F23">
-        <v>0.9805339264748063</v>
+        <v>0.9864362369021872</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="J23">
-        <v>0.9657230087772947</v>
+        <v>0.9785759134955758</v>
       </c>
       <c r="K23">
-        <v>0.9743930845057047</v>
+        <v>0.9877368734942792</v>
       </c>
       <c r="L23">
-        <v>0.9640544504136682</v>
+        <v>0.9761516922964372</v>
       </c>
       <c r="M23">
-        <v>0.9961791168748074</v>
+        <v>1.001962102333136</v>
       </c>
       <c r="N23">
-        <v>0.9878325917763903</v>
+        <v>0.9995480388954049</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.005547531498546</v>
+        <v>1.010124597219274</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>0.9930230427443915</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.002473880972493</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.007625501803392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9445588951530075</v>
+        <v>0.9556103675712686</v>
       </c>
       <c r="D24">
-        <v>0.9676048249436712</v>
+        <v>0.9788200566110267</v>
       </c>
       <c r="E24">
-        <v>0.9578301212806098</v>
+        <v>0.9679079869996123</v>
       </c>
       <c r="F24">
-        <v>0.9880470704143822</v>
+        <v>0.9928533440537873</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="J24">
-        <v>0.9743717869860213</v>
+        <v>0.984931136325676</v>
       </c>
       <c r="K24">
-        <v>0.9822257659923815</v>
+        <v>0.9932296130037146</v>
       </c>
       <c r="L24">
-        <v>0.9726405964106721</v>
+        <v>0.9825231297483616</v>
       </c>
       <c r="M24">
-        <v>1.002287395578876</v>
+        <v>1.007007136215484</v>
       </c>
       <c r="N24">
-        <v>0.9914023765246405</v>
+        <v>1.00101821889646</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.010382056442538</v>
+        <v>1.014117569019793</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>0.9985537993069737</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.006349165629374</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.009142783563774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.95771176073683</v>
+        <v>0.9665341152591445</v>
       </c>
       <c r="D25">
-        <v>0.9777754119483167</v>
+        <v>0.9867636341061615</v>
       </c>
       <c r="E25">
-        <v>0.9688547776488</v>
+        <v>0.9769113257985259</v>
       </c>
       <c r="F25">
-        <v>0.9963077689202778</v>
+        <v>1.000136260129296</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="J25">
-        <v>0.9837511968057919</v>
+        <v>0.9922427225052366</v>
       </c>
       <c r="K25">
-        <v>0.9907288205108208</v>
+        <v>0.9995709627100103</v>
       </c>
       <c r="L25">
-        <v>0.981956623716667</v>
+        <v>0.9898789600193397</v>
       </c>
       <c r="M25">
-        <v>1.008963673706568</v>
+        <v>1.012732461202942</v>
       </c>
       <c r="N25">
-        <v>0.9952606461305817</v>
+        <v>1.003308270657686</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.015666094955286</v>
+        <v>1.018648938440578</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.004563455218011</v>
+        <v>1.010829804234378</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.010931031376051</v>
       </c>
     </row>
   </sheetData>
